--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24334"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\JAProjects\wsy\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B7002E1-74AC-4146-873C-D6D12DAA92A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="7680"/>
+    <workbookView xWindow="-28920" yWindow="-3825" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,6 +28,9 @@
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -100,7 +109,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>6</t>
     </r>
@@ -129,7 +138,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>9</t>
     </r>
@@ -158,7 +167,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>12</t>
     </r>
@@ -190,7 +199,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>3</t>
     </r>
@@ -219,7 +228,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>6</t>
     </r>
@@ -251,7 +260,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>12</t>
     </r>
@@ -280,7 +289,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>ALT</t>
     </r>
@@ -291,7 +300,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>ALT3</t>
     </r>
@@ -311,7 +320,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>ALT6</t>
     </r>
@@ -331,7 +340,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>ALT9</t>
     </r>
@@ -351,7 +360,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>ALT12</t>
     </r>
@@ -380,7 +389,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>AST</t>
     </r>
@@ -391,7 +400,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>AST3</t>
     </r>
@@ -411,7 +420,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>AST6</t>
     </r>
@@ -431,7 +440,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>AST9</t>
     </r>
@@ -451,7 +460,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>AST12</t>
     </r>
@@ -480,7 +489,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>GGT</t>
     </r>
@@ -491,7 +500,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>GGT3</t>
     </r>
@@ -511,7 +520,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>GGT6</t>
     </r>
@@ -531,7 +540,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>GGT9</t>
     </r>
@@ -551,7 +560,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>GGT12</t>
     </r>
@@ -580,7 +589,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>ALP</t>
     </r>
@@ -591,7 +600,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>ALP3</t>
     </r>
@@ -611,7 +620,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>ALP6</t>
     </r>
@@ -631,7 +640,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>ALP9</t>
     </r>
@@ -651,7 +660,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>ALP12</t>
     </r>
@@ -680,7 +689,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>DNA</t>
     </r>
@@ -700,7 +709,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>HBV-DNA12</t>
     </r>
@@ -720,7 +729,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>HBsAg</t>
     </r>
@@ -740,7 +749,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>HBsAg12</t>
     </r>
@@ -760,7 +769,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>HBeAg</t>
     </r>
@@ -780,7 +789,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>HBeAg12</t>
     </r>
@@ -812,7 +821,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>12</t>
     </r>
@@ -844,7 +853,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>12</t>
     </r>
@@ -891,7 +900,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>12</t>
     </r>
@@ -1064,7 +1073,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>20</t>
     </r>
@@ -1291,7 +1300,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>2025</t>
     </r>
@@ -1452,7 +1461,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>2021.11.11</t>
     </r>
@@ -1643,7 +1652,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>2021</t>
     </r>
@@ -1693,7 +1702,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>2025.08</t>
     </r>
@@ -1890,7 +1899,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2024,7 +2033,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2245,7 +2254,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2694,7 +2703,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>20</t>
     </r>
@@ -3722,7 +3731,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>2024</t>
     </r>
@@ -3740,7 +3749,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>CA</t>
     </r>
@@ -3928,7 +3937,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -4054,17 +4063,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="7">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0_ "/>
-    <numFmt numFmtId="177" formatCode="0.000"/>
-    <numFmt numFmtId="178" formatCode="0.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="3">
+    <numFmt numFmtId="178" formatCode="0.0_ "/>
+    <numFmt numFmtId="179" formatCode="0.000"/>
+    <numFmt numFmtId="180" formatCode="0.0"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="宋体"/>
@@ -4074,7 +4079,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -4096,151 +4101,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4261,192 +4127,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -4454,346 +4140,58 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0">
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="Normal" xfId="49"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="53">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -4804,77 +4202,293 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFD9E1F4"/>
-          <bgColor rgb="FFD9E1F4"/>
+          <bgColor rgb="FFFF9900"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFD9E1F4"/>
-          <bgColor rgb="FFD9E1F4"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
-        <color rgb="FF000000"/>
+        <b/>
+        <color theme="1"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color rgb="FF000000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color rgb="FF000000"/>
-      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
       <border>
-        <left/>
-        <right/>
-        <top style="double">
-          <color rgb="FF4874CB"/>
+        <top style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
         </top>
-        <bottom/>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
-        <color rgb="FFFFFFFF"/>
+        <b/>
+        <color theme="1"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF4874CB"/>
-          <bgColor rgb="FF4874CB"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
       <border>
-        <left style="thin">
-          <color rgb="FF4874CB"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF4874CB"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF4874CB"/>
-        </top>
         <bottom style="thin">
-          <color rgb="FF4874CB"/>
+          <color theme="4" tint="0.39994506668294322"/>
         </bottom>
-        <horizontal style="thin">
-          <color rgb="FF91AADF"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -4895,7 +4509,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -4932,13 +4546,13 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color rgb="FF000000"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color rgb="FF000000"/>
       </font>
       <border>
@@ -4970,7 +4584,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -4992,7 +4606,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -5013,159 +4627,121 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor rgb="FFD9E1F4"/>
+          <bgColor rgb="FFD9E1F4"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor rgb="FFD9E1F4"/>
+          <bgColor rgb="FFD9E1F4"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
-        <color theme="1"/>
+        <b/>
+        <color rgb="FF000000"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF000000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF000000"/>
+      </font>
       <border>
-        <top style="thin">
-          <color theme="4" tint="0.399975585192419"/>
+        <left/>
+        <right/>
+        <top style="double">
+          <color rgb="FF4874CB"/>
         </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
-        <color theme="1"/>
+        <b/>
+        <color rgb="FFFFFFFF"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor rgb="FF4874CB"/>
+          <bgColor rgb="FF4874CB"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
       <border>
+        <left style="thin">
+          <color rgb="FF4874CB"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF4874CB"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF4874CB"/>
+        </top>
         <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
+          <color rgb="FF4874CB"/>
         </bottom>
+        <horizontal style="thin">
+          <color rgb="FF91AADF"/>
+        </horizontal>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="3" defaultTableStyle="TableStylePreset3_Accent1 1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1 1" pivot="0" count="7" xr9:uid="{0895283D-4CD1-44D6-8AF5-160885D7A1BC}">
-      <tableStyleElement type="wholeTable" dxfId="7"/>
-      <tableStyleElement type="headerRow" dxfId="6"/>
-      <tableStyleElement type="totalRow" dxfId="5"/>
-      <tableStyleElement type="firstColumn" dxfId="4"/>
-      <tableStyleElement type="lastColumn" dxfId="3"/>
-      <tableStyleElement type="firstRowStripe" dxfId="2"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="1"/>
+      <tableStyleElement type="wholeTable" dxfId="52"/>
+      <tableStyleElement type="headerRow" dxfId="51"/>
+      <tableStyleElement type="totalRow" dxfId="50"/>
+      <tableStyleElement type="firstColumn" dxfId="49"/>
+      <tableStyleElement type="lastColumn" dxfId="48"/>
+      <tableStyleElement type="firstRowStripe" dxfId="47"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="46"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1 1" table="0" count="10" xr9:uid="{29F0B1C2-D898-4C4A-A9F2-3AE0E44573D2}">
-      <tableStyleElement type="headerRow" dxfId="17"/>
-      <tableStyleElement type="totalRow" dxfId="16"/>
-      <tableStyleElement type="firstRowStripe" dxfId="15"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="14"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="13"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="12"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="11"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="10"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="9"/>
-      <tableStyleElement type="pageFieldValues" dxfId="8"/>
+      <tableStyleElement type="headerRow" dxfId="45"/>
+      <tableStyleElement type="totalRow" dxfId="44"/>
+      <tableStyleElement type="firstRowStripe" dxfId="43"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="42"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="41"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="40"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="39"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="38"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="37"/>
+      <tableStyleElement type="pageFieldValues" dxfId="36"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="27"/>
-      <tableStyleElement type="totalRow" dxfId="26"/>
-      <tableStyleElement type="firstRowStripe" dxfId="25"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="24"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="23"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="22"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="21"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="20"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="19"/>
-      <tableStyleElement type="pageFieldValues" dxfId="18"/>
+      <tableStyleElement type="headerRow" dxfId="35"/>
+      <tableStyleElement type="totalRow" dxfId="34"/>
+      <tableStyleElement type="firstRowStripe" dxfId="33"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="32"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="31"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="30"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="29"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="28"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="27"/>
+      <tableStyleElement type="pageFieldValues" dxfId="26"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -5415,56 +4991,56 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CA286"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.90909090909091" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9.875" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="13.4181818181818" style="4" customWidth="1"/>
-    <col min="8" max="8" width="10.9272727272727"/>
+    <col min="4" max="4" width="13.375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="10.875"/>
     <col min="14" max="14" width="9" style="4"/>
-    <col min="15" max="15" width="4.54545454545455" customWidth="1"/>
-    <col min="16" max="16" width="11.8181818181818" customWidth="1"/>
-    <col min="19" max="21" width="10.7181818181818" style="2" customWidth="1"/>
-    <col min="22" max="23" width="8.85454545454546" style="2" customWidth="1"/>
-    <col min="24" max="24" width="8.85454545454546" style="4" customWidth="1"/>
-    <col min="25" max="26" width="8.85454545454546" style="2" customWidth="1"/>
-    <col min="27" max="31" width="8.41818181818182" style="5" customWidth="1"/>
-    <col min="32" max="36" width="8.71818181818182" style="4" customWidth="1"/>
+    <col min="15" max="15" width="4.5" customWidth="1"/>
+    <col min="16" max="16" width="37.375" customWidth="1"/>
+    <col min="19" max="21" width="10.75" style="2" customWidth="1"/>
+    <col min="22" max="23" width="8.875" style="2" customWidth="1"/>
+    <col min="24" max="24" width="8.875" style="4" customWidth="1"/>
+    <col min="25" max="26" width="8.875" style="2" customWidth="1"/>
+    <col min="27" max="31" width="8.375" style="5" customWidth="1"/>
+    <col min="32" max="36" width="8.75" style="4" customWidth="1"/>
     <col min="37" max="41" width="9" style="4" customWidth="1"/>
-    <col min="42" max="46" width="8.71818181818182" style="4" customWidth="1"/>
-    <col min="47" max="48" width="12.7181818181818" style="4" customWidth="1"/>
-    <col min="49" max="50" width="16.2818181818182" style="4" customWidth="1"/>
+    <col min="42" max="46" width="8.75" style="4" customWidth="1"/>
+    <col min="47" max="48" width="12.75" style="4" customWidth="1"/>
+    <col min="49" max="50" width="16.25" style="4" customWidth="1"/>
     <col min="51" max="51" width="11" style="4" customWidth="1"/>
-    <col min="52" max="52" width="9.85454545454546" style="4" customWidth="1"/>
-    <col min="53" max="54" width="10.7181818181818" style="4" customWidth="1"/>
+    <col min="52" max="52" width="9.875" style="4" customWidth="1"/>
+    <col min="53" max="54" width="10.75" style="4" customWidth="1"/>
     <col min="55" max="55" width="24" style="4" customWidth="1"/>
-    <col min="56" max="56" width="12.5727272727273" style="4" customWidth="1"/>
-    <col min="57" max="57" width="8.90909090909091" style="4" customWidth="1"/>
-    <col min="58" max="58" width="13.9090909090909" style="4" customWidth="1"/>
-    <col min="59" max="59" width="11.8181818181818" style="4" customWidth="1"/>
+    <col min="56" max="56" width="12.625" style="4" customWidth="1"/>
+    <col min="57" max="57" width="8.875" style="4" customWidth="1"/>
+    <col min="58" max="58" width="13.875" style="4" customWidth="1"/>
+    <col min="59" max="59" width="11.875" style="4" customWidth="1"/>
     <col min="60" max="60" width="9" style="4" customWidth="1"/>
     <col min="61" max="61" width="11" style="4" customWidth="1"/>
-    <col min="62" max="62" width="15.4181818181818" style="4" customWidth="1"/>
-    <col min="63" max="63" width="12.5727272727273" style="4" customWidth="1"/>
-    <col min="64" max="64" width="44.7454545454545" style="4" customWidth="1"/>
+    <col min="62" max="62" width="15.375" style="4" customWidth="1"/>
+    <col min="63" max="63" width="12.625" style="4" customWidth="1"/>
+    <col min="64" max="64" width="44.75" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64">
+    <row r="1" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:64">
+    <row r="2" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -5658,7 +5234,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:64">
+    <row r="3" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5817,7 +5393,7 @@
         <v>147</v>
       </c>
       <c r="BC3" s="4">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BD3" s="4">
         <v>2.04</v>
@@ -5844,7 +5420,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:64">
+    <row r="4" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -5904,13 +5480,13 @@
         <v>45</v>
       </c>
       <c r="V4" s="2">
-        <v>9.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="W4" s="2">
         <v>10.6</v>
       </c>
       <c r="X4" s="4">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="Y4" s="2">
         <v>14</v>
@@ -6027,10 +5603,10 @@
         <v>8.5</v>
       </c>
       <c r="BK4" s="4">
-        <v>8.7</v>
+        <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="5" spans="1:64">
+    <row r="5" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -6171,7 +5747,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="6" spans="1:64">
+    <row r="6" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -6234,7 +5810,7 @@
         <v>15</v>
       </c>
       <c r="W6" s="2">
-        <v>16.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="X6" s="4">
         <v>14.3</v>
@@ -6243,7 +5819,7 @@
         <v>17.7</v>
       </c>
       <c r="Z6" s="2">
-        <v>17.9</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="AA6" s="5">
         <v>28</v>
@@ -6357,7 +5933,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="7" spans="1:64">
+    <row r="7" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -6419,7 +5995,7 @@
         <v>50</v>
       </c>
       <c r="V7" s="2">
-        <v>17.9</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="W7" s="2">
         <v>15</v>
@@ -6539,13 +6115,13 @@
         <v>64</v>
       </c>
       <c r="BJ7" s="4">
-        <v>9.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="BK7" s="4">
         <v>6.1</v>
       </c>
     </row>
-    <row r="8" spans="1:64">
+    <row r="8" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -6614,7 +6190,7 @@
         <v>13.1</v>
       </c>
       <c r="Y8" s="2">
-        <v>18.6</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="Z8" s="2">
         <v>20.6</v>
@@ -6728,7 +6304,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="9" spans="1:64">
+    <row r="9" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -6827,10 +6403,10 @@
         <v>70</v>
       </c>
       <c r="AW9" s="4">
-        <v>74.01</v>
+        <v>74.010000000000005</v>
       </c>
       <c r="AX9" s="4">
-        <v>73.54</v>
+        <v>73.540000000000006</v>
       </c>
       <c r="AY9" s="4">
         <v>2</v>
@@ -6872,7 +6448,7 @@
         <v>15.4</v>
       </c>
     </row>
-    <row r="10" spans="1:64">
+    <row r="10" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -6935,14 +6511,14 @@
         <v>22.2</v>
       </c>
       <c r="W10" s="9">
-        <v>20.4</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="X10" s="5">
         <v>29.1</v>
       </c>
       <c r="Y10" s="9"/>
       <c r="Z10" s="9">
-        <v>20.1</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="AA10" s="5">
         <v>12</v>
@@ -7041,7 +6617,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="11" spans="1:64">
+    <row r="11" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -7104,7 +6680,7 @@
         <v>12.8</v>
       </c>
       <c r="W11" s="2">
-        <v>17.1</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="X11" s="4">
         <v>12.5</v>
@@ -7212,13 +6788,13 @@
         <v>85</v>
       </c>
       <c r="BJ11" s="4">
-        <v>19.4</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="BK11" s="4">
         <v>12.5</v>
       </c>
     </row>
-    <row r="12" spans="1:64">
+    <row r="12" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -7283,7 +6859,7 @@
         <v>11.4</v>
       </c>
       <c r="W12" s="9">
-        <v>17.6</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="X12" s="5"/>
       <c r="Y12" s="9">
@@ -7389,7 +6965,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="13" spans="1:64">
+    <row r="13" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -7534,10 +7110,10 @@
         <v>55</v>
       </c>
       <c r="BJ13" s="4">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="14" spans="1:64">
+    <row r="14" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -7602,7 +7178,7 @@
         <v>18.2</v>
       </c>
       <c r="W14" s="9">
-        <v>19.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="X14" s="5"/>
       <c r="Y14" s="9"/>
@@ -7694,7 +7270,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="15" spans="1:64">
+    <row r="15" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -7857,7 +7433,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" ht="16" customHeight="1" spans="1:64">
+    <row r="16" spans="1:64" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -8026,7 +7602,7 @@
         <v>30.4</v>
       </c>
     </row>
-    <row r="17" spans="1:64">
+    <row r="17" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -8166,7 +7742,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="18" spans="1:64">
+    <row r="18" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -8354,7 +7930,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="19" spans="1:64">
+    <row r="19" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -8517,7 +8093,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="20" spans="1:64">
+    <row r="20" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -8666,7 +8242,7 @@
       </c>
       <c r="BL20" s="6"/>
     </row>
-    <row r="21" spans="1:64">
+    <row r="21" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -8736,7 +8312,7 @@
       <c r="X21" s="5"/>
       <c r="Y21" s="9"/>
       <c r="Z21" s="9">
-        <v>17.6</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="AA21" s="5">
         <v>25</v>
@@ -8817,7 +8393,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="22" spans="1:64">
+    <row r="22" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -8998,7 +8574,7 @@
       </c>
       <c r="BL22" s="6"/>
     </row>
-    <row r="23" s="1" customFormat="1" spans="1:64">
+    <row r="23" spans="1:64" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -9069,7 +8645,7 @@
         <v>18.3</v>
       </c>
       <c r="Y23" s="2">
-        <v>16.4</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="Z23" s="2">
         <v>12.2</v>
@@ -9185,7 +8761,7 @@
       <c r="BK23" s="4"/>
       <c r="BL23" s="6"/>
     </row>
-    <row r="24" s="1" customFormat="1" spans="1:64">
+    <row r="24" spans="1:64" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -9326,7 +8902,7 @@
         <v>70</v>
       </c>
       <c r="AW24" s="4">
-        <v>8.45</v>
+        <v>8.4499999999999993</v>
       </c>
       <c r="AX24" s="4">
         <v>4.96</v>
@@ -9370,7 +8946,7 @@
       <c r="BK24" s="4"/>
       <c r="BL24" s="6"/>
     </row>
-    <row r="25" spans="1:64">
+    <row r="25" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -9439,7 +9015,7 @@
         <v>20.2</v>
       </c>
       <c r="Y25" s="2">
-        <v>17.6</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="Z25" s="2">
         <v>17</v>
@@ -9553,7 +9129,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="26" spans="1:64">
+    <row r="26" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
@@ -9735,13 +9311,13 @@
         <v>68</v>
       </c>
       <c r="BJ26" s="4">
-        <v>18.9</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="BK26" s="4">
         <v>9.9</v>
       </c>
     </row>
-    <row r="27" spans="1:64">
+    <row r="27" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
@@ -9812,7 +9388,7 @@
         <v>27.6</v>
       </c>
       <c r="Y27" s="2">
-        <v>19.4</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="Z27" s="2">
         <v>20.3</v>
@@ -9930,7 +9506,7 @@
       </c>
       <c r="BL27" s="6"/>
     </row>
-    <row r="28" spans="1:64">
+    <row r="28" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
@@ -9995,7 +9571,7 @@
         <v>17.8</v>
       </c>
       <c r="W28" s="2">
-        <v>20.1</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="X28" s="4">
         <v>12.4</v>
@@ -10112,13 +9688,13 @@
         <v>22.5</v>
       </c>
       <c r="BK28" s="4">
-        <v>33.8</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="BL28" s="10" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="29" spans="1:64">
+    <row r="29" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
@@ -10279,7 +9855,7 @@
         <v>179</v>
       </c>
       <c r="BC29" s="4">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="BD29" s="4">
         <v>1.2</v>
@@ -10307,7 +9883,7 @@
       </c>
       <c r="BL29" s="6"/>
     </row>
-    <row r="30" spans="1:64">
+    <row r="30" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
@@ -10373,7 +9949,7 @@
         <v>14.2</v>
       </c>
       <c r="X30" s="4">
-        <v>18.4</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="Y30" s="2">
         <v>16.8</v>
@@ -10448,7 +10024,7 @@
         <v>70</v>
       </c>
       <c r="AW30" s="4">
-        <v>1030.11</v>
+        <v>1030.1099999999999</v>
       </c>
       <c r="AX30" s="4">
         <v>994.18</v>
@@ -10493,7 +10069,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="31" spans="1:64">
+    <row r="31" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
@@ -10561,10 +10137,10 @@
         <v>31.4</v>
       </c>
       <c r="X31" s="4">
-        <v>32.8</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="Y31" s="2">
-        <v>34.3</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="Z31" s="2">
         <v>34.9</v>
@@ -10639,7 +10215,7 @@
         <v>119.11</v>
       </c>
       <c r="AX31" s="4">
-        <v>73.76</v>
+        <v>73.760000000000005</v>
       </c>
       <c r="AY31" s="4">
         <v>2</v>
@@ -10678,10 +10254,10 @@
         <v>10.8</v>
       </c>
       <c r="BK31" s="4">
-        <v>9.3</v>
+        <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="32" spans="1:64">
+    <row r="32" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
@@ -10869,7 +10445,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="33" spans="1:64">
+    <row r="33" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
@@ -10934,10 +10510,10 @@
         <v>15.6</v>
       </c>
       <c r="W33" s="2">
-        <v>19.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="X33" s="4">
-        <v>20.4</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="Y33" s="2">
         <v>22.7</v>
@@ -11057,7 +10633,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="34" spans="1:64">
+    <row r="34" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>32</v>
       </c>
@@ -11245,7 +10821,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="35" spans="1:64">
+    <row r="35" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>33</v>
       </c>
@@ -11313,7 +10889,7 @@
         <v>17.5</v>
       </c>
       <c r="X35" s="4">
-        <v>16.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="Y35" s="2">
         <v>14.3</v>
@@ -11424,7 +11000,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="36" s="1" customFormat="1" spans="1:64">
+    <row r="36" spans="1:64" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>34</v>
       </c>
@@ -11477,13 +11053,13 @@
         <v>43.6</v>
       </c>
       <c r="S36" s="2">
-        <v>38.3</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="T36" s="2">
         <v>37</v>
       </c>
       <c r="U36" s="2">
-        <v>36.8</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="V36" s="2">
         <v>25.1</v>
@@ -11592,7 +11168,7 @@
         <v>72</v>
       </c>
       <c r="BF36" s="4">
-        <v>78.9</v>
+        <v>78.900000000000006</v>
       </c>
       <c r="BG36" s="4"/>
       <c r="BH36" s="4"/>
@@ -11603,7 +11179,7 @@
       <c r="BK36" s="4"/>
       <c r="BL36" s="4"/>
     </row>
-    <row r="37" s="1" customFormat="1" spans="1:64">
+    <row r="37" spans="1:64" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>35</v>
       </c>
@@ -11788,7 +11364,7 @@
       </c>
       <c r="BL37" s="4"/>
     </row>
-    <row r="38" spans="1:64">
+    <row r="38" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>36</v>
       </c>
@@ -11856,7 +11432,7 @@
         <v>23.1</v>
       </c>
       <c r="X38" s="4">
-        <v>19.1</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="Y38" s="2">
         <v>21</v>
@@ -11976,7 +11552,7 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="39" spans="1:64">
+    <row r="39" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>37</v>
       </c>
@@ -12038,10 +11614,10 @@
         <v>45</v>
       </c>
       <c r="V39" s="2">
-        <v>16.4</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="W39" s="2">
-        <v>18.1</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="X39" s="4">
         <v>18.5</v>
@@ -12134,7 +11710,7 @@
         <v>6.5</v>
       </c>
       <c r="BD39" s="4">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="BE39" s="4">
         <v>63</v>
@@ -12158,7 +11734,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="40" spans="1:64">
+    <row r="40" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>38</v>
       </c>
@@ -12343,7 +11919,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="41" s="1" customFormat="1" spans="1:64">
+    <row r="41" spans="1:64" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>39</v>
       </c>
@@ -12411,13 +11987,13 @@
         <v>22.9</v>
       </c>
       <c r="X41" s="4">
-        <v>20.4</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="Y41" s="2">
         <v>29.1</v>
       </c>
       <c r="Z41" s="2">
-        <v>19.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="AA41" s="5">
         <v>31</v>
@@ -12532,7 +12108,7 @@
       </c>
       <c r="BL41" s="6"/>
     </row>
-    <row r="42" spans="1:64">
+    <row r="42" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>40</v>
       </c>
@@ -12594,7 +12170,7 @@
         <v>46</v>
       </c>
       <c r="V42" s="2">
-        <v>17.6</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="W42" s="2">
         <v>20.6</v>
@@ -12717,7 +12293,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="43" spans="1:64">
+    <row r="43" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>41</v>
       </c>
@@ -12779,13 +12355,13 @@
         <v>46</v>
       </c>
       <c r="V43" s="2">
-        <v>19.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="W43" s="2">
         <v>22.7</v>
       </c>
       <c r="X43" s="4">
-        <v>17.9</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="Y43" s="2">
         <v>16</v>
@@ -12896,7 +12472,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="44" spans="1:64">
+    <row r="44" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>42</v>
       </c>
@@ -12959,7 +12535,7 @@
         <v>21.3</v>
       </c>
       <c r="W44" s="9">
-        <v>16.4</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="X44" s="5"/>
       <c r="Y44" s="9"/>
@@ -13032,7 +12608,7 @@
       </c>
       <c r="BL44" s="6"/>
     </row>
-    <row r="45" spans="1:64">
+    <row r="45" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>43</v>
       </c>
@@ -13101,7 +12677,7 @@
         <v>16.7</v>
       </c>
       <c r="Y45" s="2">
-        <v>32.7</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="Z45" s="2">
         <v>25</v>
@@ -13206,7 +12782,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="46" spans="1:64">
+    <row r="46" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>44</v>
       </c>
@@ -13275,7 +12851,7 @@
         <v>18.8</v>
       </c>
       <c r="Y46" s="2">
-        <v>19.4</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="Z46" s="2">
         <v>11</v>
@@ -13350,7 +12926,7 @@
         <v>1068.33</v>
       </c>
       <c r="AX46" s="4">
-        <v>1067.6</v>
+        <v>1067.5999999999999</v>
       </c>
       <c r="AY46" s="4">
         <v>1</v>
@@ -13368,7 +12944,7 @@
         <v>2.1</v>
       </c>
       <c r="BD46" s="4">
-        <v>4.77</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="BE46" s="4">
         <v>60</v>
@@ -13392,7 +12968,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="47" spans="1:64">
+    <row r="47" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>45</v>
       </c>
@@ -13544,7 +13120,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="48" spans="1:64">
+    <row r="48" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>46</v>
       </c>
@@ -13612,7 +13188,7 @@
         <v>13.8</v>
       </c>
       <c r="X48" s="4">
-        <v>16.1</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="Y48" s="2">
         <v>23.9</v>
@@ -13687,7 +13263,7 @@
         <v>70</v>
       </c>
       <c r="AW48" s="4">
-        <v>21.358</v>
+        <v>21.358000000000001</v>
       </c>
       <c r="AX48" s="4">
         <v>12.86</v>
@@ -13732,7 +13308,7 @@
         <v>24.2</v>
       </c>
     </row>
-    <row r="49" spans="1:64">
+    <row r="49" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>47</v>
       </c>
@@ -13898,11 +13474,11 @@
         <v>8.9</v>
       </c>
       <c r="BK49" s="4">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="BL49" s="6"/>
     </row>
-    <row r="50" spans="1:64">
+    <row r="50" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>48</v>
       </c>
@@ -13962,7 +13538,7 @@
         <v>45</v>
       </c>
       <c r="V50" s="9">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="W50" s="9">
         <v>5.5</v>
@@ -14032,7 +13608,7 @@
         <v>7560.35</v>
       </c>
       <c r="AX50" s="4">
-        <v>8939.45</v>
+        <v>8939.4500000000007</v>
       </c>
       <c r="AY50" s="4">
         <v>1</v>
@@ -14071,7 +13647,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="51" spans="1:64">
+    <row r="51" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>49</v>
       </c>
@@ -14129,7 +13705,7 @@
         <v>41</v>
       </c>
       <c r="V51" s="9">
-        <v>16.1</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="W51" s="9"/>
       <c r="X51" s="5">
@@ -14235,7 +13811,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="52" spans="1:64">
+    <row r="52" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>50</v>
       </c>
@@ -14421,7 +13997,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:64">
+    <row r="53" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>51</v>
       </c>
@@ -14483,10 +14059,10 @@
       </c>
       <c r="W53" s="9"/>
       <c r="X53" s="5">
-        <v>16.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="Y53" s="9">
-        <v>18.1</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="Z53" s="9">
         <v>15.9</v>
@@ -14564,7 +14140,7 @@
         <v>4.38</v>
       </c>
       <c r="BD53" s="4">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="BE53" s="4">
         <v>84</v>
@@ -14579,10 +14155,10 @@
         <v>9</v>
       </c>
       <c r="BK53" s="4">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="54" spans="1:64">
+    <row r="54" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>52</v>
       </c>
@@ -14732,7 +14308,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="55" s="1" customFormat="1" spans="1:64">
+    <row r="55" spans="1:64" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>53</v>
       </c>
@@ -14921,7 +14497,7 @@
       </c>
       <c r="BL55" s="6"/>
     </row>
-    <row r="56" spans="1:64">
+    <row r="56" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>54</v>
       </c>
@@ -15106,7 +14682,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="57" s="1" customFormat="1" spans="1:64">
+    <row r="57" spans="1:64" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>55</v>
       </c>
@@ -15168,7 +14744,7 @@
         <v>46</v>
       </c>
       <c r="V57" s="2">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="W57" s="2">
         <v>9.6</v>
@@ -15180,7 +14756,7 @@
         <v>10</v>
       </c>
       <c r="Z57" s="2">
-        <v>8.7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="AA57" s="5">
         <v>49</v>
@@ -15249,7 +14825,7 @@
         <v>70</v>
       </c>
       <c r="AW57" s="4">
-        <v>4560.61</v>
+        <v>4560.6099999999997</v>
       </c>
       <c r="AX57" s="4">
         <v>4373.41</v>
@@ -15288,14 +14864,14 @@
         <v>79</v>
       </c>
       <c r="BJ57" s="4">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="BK57" s="4">
         <v>5.7</v>
       </c>
       <c r="BL57" s="4"/>
     </row>
-    <row r="58" spans="1:64">
+    <row r="58" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>56</v>
       </c>
@@ -15360,7 +14936,7 @@
       </c>
       <c r="Y58" s="9"/>
       <c r="Z58" s="9">
-        <v>9.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="AA58" s="5">
         <v>16</v>
@@ -15408,7 +14984,7 @@
         <v>3716.4</v>
       </c>
       <c r="AX58" s="4">
-        <v>4546.98</v>
+        <v>4546.9799999999996</v>
       </c>
       <c r="AY58" s="4">
         <v>2</v>
@@ -15441,7 +15017,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="59" spans="1:64">
+    <row r="59" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>57</v>
       </c>
@@ -15584,13 +15160,13 @@
         <v>72</v>
       </c>
       <c r="BJ59" s="4">
-        <v>19.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="BL59" s="10" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="60" spans="1:64">
+    <row r="60" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>58</v>
       </c>
@@ -15716,7 +15292,7 @@
         <v>3.67</v>
       </c>
       <c r="BD60" s="4">
-        <v>4.19</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="BE60" s="4">
         <v>84</v>
@@ -15734,7 +15310,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="61" spans="1:64">
+    <row r="61" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>59</v>
       </c>
@@ -15842,7 +15418,7 @@
         <v>70</v>
       </c>
       <c r="AW61" s="4">
-        <v>4349.218</v>
+        <v>4349.2179999999998</v>
       </c>
       <c r="AX61" s="4">
         <v>3927.14</v>
@@ -15881,7 +15457,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="62" spans="1:64">
+    <row r="62" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>60</v>
       </c>
@@ -16046,7 +15622,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="63" spans="1:64">
+    <row r="63" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>61</v>
       </c>
@@ -16109,7 +15685,7 @@
       </c>
       <c r="Y63" s="9"/>
       <c r="Z63" s="9">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="AA63" s="5">
         <v>37</v>
@@ -16187,13 +15763,13 @@
         <v>61</v>
       </c>
       <c r="BJ63" s="4">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="BL63" s="6" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="64" spans="1:64">
+    <row r="64" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>62</v>
       </c>
@@ -16360,7 +15936,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="65" spans="1:64">
+    <row r="65" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>63</v>
       </c>
@@ -16428,13 +16004,13 @@
         <v>25.3</v>
       </c>
       <c r="X65" s="5">
-        <v>20.4</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="Y65" s="9">
         <v>30.3</v>
       </c>
       <c r="Z65" s="9">
-        <v>19.9</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="AA65" s="5">
         <v>21</v>
@@ -16503,7 +16079,7 @@
         <v>70</v>
       </c>
       <c r="AW65" s="4">
-        <v>5166.258</v>
+        <v>5166.2579999999998</v>
       </c>
       <c r="AY65" s="4">
         <v>1</v>
@@ -16521,7 +16097,7 @@
         <v>1.51</v>
       </c>
       <c r="BD65" s="4">
-        <v>1.13</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="BE65" s="4">
         <v>78</v>
@@ -16545,7 +16121,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="66" spans="1:64">
+    <row r="66" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>64</v>
       </c>
@@ -16610,7 +16186,7 @@
         <v>23.3</v>
       </c>
       <c r="W66" s="2">
-        <v>34.3</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="X66" s="4">
         <v>31.8</v>
@@ -16721,13 +16297,13 @@
         <v>73</v>
       </c>
       <c r="BJ66" s="4">
-        <v>16.9</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="BK66" s="4">
         <v>15.4</v>
       </c>
     </row>
-    <row r="67" spans="1:64">
+    <row r="67" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>65</v>
       </c>
@@ -16912,7 +16488,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="68" s="1" customFormat="1" spans="1:64">
+    <row r="68" spans="1:64" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>66</v>
       </c>
@@ -16968,7 +16544,7 @@
         <v>33.6</v>
       </c>
       <c r="T68" s="2">
-        <v>36.3</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="U68" s="2">
         <v>41.8</v>
@@ -17007,7 +16583,7 @@
         <v>29</v>
       </c>
       <c r="AG68" s="4">
-        <v>40.7</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="AH68" s="4">
         <v>39</v>
@@ -17058,7 +16634,7 @@
         <v>406.4</v>
       </c>
       <c r="AX68" s="4">
-        <v>306.91</v>
+        <v>306.91000000000003</v>
       </c>
       <c r="AY68" s="4">
         <v>2</v>
@@ -17076,7 +16652,7 @@
         <v>1.5</v>
       </c>
       <c r="BD68" s="4">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="BE68" s="4">
         <v>66</v>
@@ -17101,7 +16677,7 @@
       </c>
       <c r="BL68" s="4"/>
     </row>
-    <row r="69" spans="1:64">
+    <row r="69" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>67</v>
       </c>
@@ -17164,11 +16740,11 @@
         <v>13</v>
       </c>
       <c r="X69" s="5">
-        <v>9.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="Y69" s="9"/>
       <c r="Z69" s="9">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="AA69" s="5">
         <v>13</v>
@@ -17228,7 +16804,7 @@
         <v>496.53</v>
       </c>
       <c r="AX69" s="4">
-        <v>548.68</v>
+        <v>548.67999999999995</v>
       </c>
       <c r="AY69" s="4">
         <v>2</v>
@@ -17267,7 +16843,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="70" spans="1:64">
+    <row r="70" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>68</v>
       </c>
@@ -17393,7 +16969,7 @@
         <v>4.2</v>
       </c>
       <c r="BD70" s="4">
-        <v>2.53</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="BE70" s="4">
         <v>74</v>
@@ -17417,7 +16993,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="71" spans="1:64">
+    <row r="71" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>69</v>
       </c>
@@ -17476,7 +17052,7 @@
         <v>48</v>
       </c>
       <c r="V71" s="9">
-        <v>16.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="W71" s="9">
         <v>24.6</v>
@@ -17585,7 +17161,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="72" spans="1:64">
+    <row r="72" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>70</v>
       </c>
@@ -17732,7 +17308,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="73" spans="1:64">
+    <row r="73" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>71</v>
       </c>
@@ -17900,7 +17476,7 @@
         <v>23.2</v>
       </c>
     </row>
-    <row r="74" spans="1:64">
+    <row r="74" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>72</v>
       </c>
@@ -17963,7 +17539,7 @@
       </c>
       <c r="Y74" s="9"/>
       <c r="Z74" s="9">
-        <v>8.7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="AA74" s="5">
         <v>26</v>
@@ -18011,7 +17587,7 @@
         <v>2747.05</v>
       </c>
       <c r="AX74" s="4">
-        <v>2479.49</v>
+        <v>2479.4899999999998</v>
       </c>
       <c r="AY74" s="4">
         <v>2</v>
@@ -18047,7 +17623,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="75" spans="1:64">
+    <row r="75" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>73</v>
       </c>
@@ -18121,7 +17697,7 @@
         <v>48.9</v>
       </c>
       <c r="Z75" s="9">
-        <v>39.2</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="AA75" s="5">
         <v>47</v>
@@ -18232,10 +17808,10 @@
         <v>12.5</v>
       </c>
       <c r="BK75" s="13">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="76" spans="1:64">
+    <row r="76" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>74</v>
       </c>
@@ -18300,7 +17876,7 @@
       </c>
       <c r="Y76" s="9"/>
       <c r="Z76" s="9">
-        <v>19.1</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="AA76" s="5">
         <v>20</v>
@@ -18372,7 +17948,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="77" spans="1:64">
+    <row r="77" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>75</v>
       </c>
@@ -18435,7 +18011,7 @@
       </c>
       <c r="Y77" s="9"/>
       <c r="Z77" s="9">
-        <v>18.9</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="AA77" s="5">
         <v>13</v>
@@ -18519,7 +18095,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="78" spans="1:64">
+    <row r="78" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>76</v>
       </c>
@@ -18587,7 +18163,7 @@
         <v>9.4</v>
       </c>
       <c r="X78" s="5">
-        <v>16.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="Y78" s="9">
         <v>19</v>
@@ -18707,7 +18283,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="79" spans="1:64">
+    <row r="79" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>77</v>
       </c>
@@ -18869,10 +18445,10 @@
         <v>10.1</v>
       </c>
       <c r="BK79" s="13">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="80" spans="1:64">
+    <row r="80" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>78</v>
       </c>
@@ -18922,7 +18498,7 @@
         <v>41.9</v>
       </c>
       <c r="R80" s="2">
-        <v>38.8</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="S80" s="2">
         <v>43.5</v>
@@ -18934,7 +18510,7 @@
         <v>44.1</v>
       </c>
       <c r="V80" s="2">
-        <v>16.9</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="W80" s="2">
         <v>14.3</v>
@@ -19054,10 +18630,10 @@
         <v>12.1</v>
       </c>
       <c r="BK80" s="13">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="81" spans="1:64">
+    <row r="81" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>79</v>
       </c>
@@ -19242,7 +18818,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="82" s="1" customFormat="1" spans="1:64">
+    <row r="82" spans="1:64" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>80</v>
       </c>
@@ -19409,7 +18985,7 @@
       </c>
       <c r="BL82" s="4"/>
     </row>
-    <row r="83" spans="1:64">
+    <row r="83" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>81</v>
       </c>
@@ -19555,7 +19131,7 @@
         <v>957.18</v>
       </c>
       <c r="AX83" s="4">
-        <v>9595.72</v>
+        <v>9595.7199999999993</v>
       </c>
       <c r="AY83" s="4">
         <v>2</v>
@@ -19594,10 +19170,10 @@
         <v>13.8</v>
       </c>
       <c r="BK83" s="13">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="84" spans="1:64">
+    <row r="84" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>82</v>
       </c>
@@ -19761,7 +19337,7 @@
         <v>4.33</v>
       </c>
       <c r="BD84" s="4">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="BE84" s="4">
         <v>66</v>
@@ -19782,10 +19358,10 @@
         <v>12.1</v>
       </c>
       <c r="BK84" s="13">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="85" spans="1:64">
+    <row r="85" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>83</v>
       </c>
@@ -19850,10 +19426,10 @@
         <v>19.2</v>
       </c>
       <c r="W85" s="2">
-        <v>17.1</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="X85" s="4">
-        <v>16.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="Y85" s="2">
         <v>20.5</v>
@@ -19973,7 +19549,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="86" spans="1:64">
+    <row r="86" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>84</v>
       </c>
@@ -20134,7 +19710,7 @@
       </c>
       <c r="BL86" s="6"/>
     </row>
-    <row r="87" spans="1:64">
+    <row r="87" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>85</v>
       </c>
@@ -20202,7 +19778,7 @@
         <v>10.9</v>
       </c>
       <c r="X87" s="4">
-        <v>8.7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="Y87" s="2">
         <v>10</v>
@@ -20277,10 +19853,10 @@
         <v>70</v>
       </c>
       <c r="AW87" s="4">
-        <v>1055.84</v>
+        <v>1055.8399999999999</v>
       </c>
       <c r="AX87" s="4">
-        <v>1247.41</v>
+        <v>1247.4100000000001</v>
       </c>
       <c r="AY87" s="4">
         <v>2</v>
@@ -20319,11 +19895,11 @@
         <v>11.9</v>
       </c>
       <c r="BK87" s="4">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="BL87" s="6"/>
     </row>
-    <row r="88" spans="1:64">
+    <row r="88" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>86</v>
       </c>
@@ -20503,7 +20079,7 @@
       </c>
       <c r="BL88" s="6"/>
     </row>
-    <row r="89" spans="1:64">
+    <row r="89" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>87</v>
       </c>
@@ -20688,7 +20264,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="90" spans="1:64">
+    <row r="90" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>88</v>
       </c>
@@ -20751,7 +20327,7 @@
         <v>22.5</v>
       </c>
       <c r="W90" s="2">
-        <v>18.4</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="X90" s="4">
         <v>13.7</v>
@@ -20760,7 +20336,7 @@
         <v>19.7</v>
       </c>
       <c r="Z90" s="2">
-        <v>32.7</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="AA90" s="5">
         <v>21</v>
@@ -20862,7 +20438,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="91" s="1" customFormat="1" spans="1:64">
+    <row r="91" spans="1:64" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>89</v>
       </c>
@@ -20925,13 +20501,13 @@
         <v>17.5</v>
       </c>
       <c r="W91" s="2">
-        <v>18.9</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="X91" s="4">
         <v>15</v>
       </c>
       <c r="Y91" s="2">
-        <v>16.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="Z91" s="2">
         <v>14.4</v>
@@ -21006,7 +20582,7 @@
         <v>650.15</v>
       </c>
       <c r="AX91" s="4">
-        <v>613.69</v>
+        <v>613.69000000000005</v>
       </c>
       <c r="AY91" s="4">
         <v>2</v>
@@ -21049,7 +20625,7 @@
       </c>
       <c r="BL91" s="4"/>
     </row>
-    <row r="92" spans="1:64">
+    <row r="92" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>90</v>
       </c>
@@ -21109,7 +20685,7 @@
         <v>49</v>
       </c>
       <c r="V92" s="2">
-        <v>20.1</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="W92" s="2">
         <v>12.9</v>
@@ -21226,7 +20802,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="93" s="1" customFormat="1" spans="1:64">
+    <row r="93" spans="1:64" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>91</v>
       </c>
@@ -21385,7 +20961,7 @@
         <v>181</v>
       </c>
       <c r="BC93" s="4">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BD93" s="4">
         <v>2.99</v>
@@ -21413,7 +20989,7 @@
       </c>
       <c r="BL93" s="4"/>
     </row>
-    <row r="94" spans="1:64">
+    <row r="94" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>92</v>
       </c>
@@ -21475,7 +21051,7 @@
         <v>45</v>
       </c>
       <c r="V94" s="2">
-        <v>19.4</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="W94" s="2">
         <v>13.6</v>
@@ -21484,7 +21060,7 @@
         <v>14.2</v>
       </c>
       <c r="Y94" s="2">
-        <v>17.1</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="Z94" s="2">
         <v>14.2</v>
@@ -21592,13 +21168,13 @@
         <v>68</v>
       </c>
       <c r="BJ94" s="4">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="BK94" s="4">
-        <v>8.7</v>
+        <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="95" spans="1:64">
+    <row r="95" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>93</v>
       </c>
@@ -21661,7 +21237,7 @@
         <v>14</v>
       </c>
       <c r="W95" s="2">
-        <v>19.9</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="X95" s="4">
         <v>11.5</v>
@@ -21784,7 +21360,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="96" spans="1:64">
+    <row r="96" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>94</v>
       </c>
@@ -21969,7 +21545,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="97" s="1" customFormat="1" spans="1:64">
+    <row r="97" spans="1:64" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>95</v>
       </c>
@@ -22037,7 +21613,7 @@
         <v>21.8</v>
       </c>
       <c r="X97" s="4">
-        <v>19.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="Y97" s="2">
         <v>22</v>
@@ -22130,7 +21706,7 @@
         <v>139</v>
       </c>
       <c r="BC97" s="4">
-        <v>2.28</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="BD97" s="4">
         <v>2.6</v>
@@ -22154,11 +21730,11 @@
         <v>13.6</v>
       </c>
       <c r="BK97" s="4">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="BL97" s="6"/>
     </row>
-    <row r="98" spans="1:64">
+    <row r="98" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>96</v>
       </c>
@@ -22226,7 +21802,7 @@
         <v>24.9</v>
       </c>
       <c r="X98" s="4">
-        <v>17.1</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="Y98" s="2">
         <v>16.3</v>
@@ -22304,7 +21880,7 @@
         <v>2979.26</v>
       </c>
       <c r="AX98" s="4">
-        <v>2554.2</v>
+        <v>2554.1999999999998</v>
       </c>
       <c r="AY98" s="4">
         <v>2</v>
@@ -22344,7 +21920,7 @@
       </c>
       <c r="BL98" s="6"/>
     </row>
-    <row r="99" spans="1:64">
+    <row r="99" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>97</v>
       </c>
@@ -22530,7 +22106,7 @@
       </c>
       <c r="BL99" s="6"/>
     </row>
-    <row r="100" spans="1:64">
+    <row r="100" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>98</v>
       </c>
@@ -22673,7 +22249,7 @@
         <v>70</v>
       </c>
       <c r="AW100" s="4">
-        <v>590.92</v>
+        <v>590.91999999999996</v>
       </c>
       <c r="AX100" s="4">
         <v>517.84</v>
@@ -22715,11 +22291,11 @@
         <v>11.3</v>
       </c>
       <c r="BK100" s="4">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="BL100" s="6"/>
     </row>
-    <row r="101" spans="1:64">
+    <row r="101" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>99</v>
       </c>
@@ -22868,7 +22444,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="102" spans="1:64">
+    <row r="102" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>100</v>
       </c>
@@ -23055,7 +22631,7 @@
       </c>
       <c r="BL102" s="6"/>
     </row>
-    <row r="103" spans="1:64">
+    <row r="103" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>101</v>
       </c>
@@ -23117,7 +22693,7 @@
         <v>48</v>
       </c>
       <c r="V103" s="2">
-        <v>9.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="W103" s="2">
         <v>12.8</v>
@@ -23234,7 +22810,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="104" spans="1:64">
+    <row r="104" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>102</v>
       </c>
@@ -23302,7 +22878,7 @@
         <v>21.1</v>
       </c>
       <c r="Z104" s="2">
-        <v>19.4</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="AA104" s="5">
         <v>34</v>
@@ -23398,11 +22974,11 @@
         <v>10.6</v>
       </c>
       <c r="BK104" s="4">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="BL104" s="6"/>
     </row>
-    <row r="105" spans="1:64">
+    <row r="105" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>103</v>
       </c>
@@ -23585,7 +23161,7 @@
       </c>
       <c r="BL105" s="6"/>
     </row>
-    <row r="106" spans="1:64">
+    <row r="106" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>104</v>
       </c>
@@ -23728,7 +23304,7 @@
         <v>70</v>
       </c>
       <c r="AW106" s="4">
-        <v>1122.86</v>
+        <v>1122.8599999999999</v>
       </c>
       <c r="AX106" s="4">
         <v>1185.08</v>
@@ -23770,7 +23346,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="1:64">
+    <row r="107" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>105</v>
       </c>
@@ -23911,7 +23487,7 @@
         <v>70</v>
       </c>
       <c r="AW107" s="4">
-        <v>1042.61</v>
+        <v>1042.6099999999999</v>
       </c>
       <c r="AX107" s="4">
         <v>782.16</v>
@@ -23926,7 +23502,7 @@
         <v>2.79</v>
       </c>
       <c r="BD107" s="4">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="BE107" s="4">
         <v>69</v>
@@ -23948,7 +23524,7 @@
       </c>
       <c r="BL107" s="6"/>
     </row>
-    <row r="108" spans="1:64">
+    <row r="108" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>106</v>
       </c>
@@ -24109,7 +23685,7 @@
         <v>1.7</v>
       </c>
       <c r="BD108" s="4">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="BE108" s="4">
         <v>75</v>
@@ -24127,10 +23703,10 @@
         <v>64</v>
       </c>
       <c r="BJ108" s="4">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="109" spans="1:64">
+    <row r="109" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>107</v>
       </c>
@@ -24304,7 +23880,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="110" spans="1:64">
+    <row r="110" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>108</v>
       </c>
@@ -24375,7 +23951,7 @@
         <v>18.5</v>
       </c>
       <c r="Y110" s="2">
-        <v>19.4</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="Z110" s="2">
         <v>16.5</v>
@@ -24486,13 +24062,13 @@
         <v>83</v>
       </c>
       <c r="BJ110" s="4">
-        <v>17.9</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="BK110" s="4">
         <v>11.3</v>
       </c>
     </row>
-    <row r="111" spans="1:64">
+    <row r="111" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>109</v>
       </c>
@@ -24630,7 +24206,7 @@
         <v>114</v>
       </c>
       <c r="BC111" s="4">
-        <v>2.47</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="BD111" s="4">
         <v>3.59</v>
@@ -24651,7 +24227,7 @@
         <v>22.4</v>
       </c>
     </row>
-    <row r="112" spans="1:64">
+    <row r="112" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>110</v>
       </c>
@@ -24723,7 +24299,7 @@
         <v>7.5</v>
       </c>
       <c r="Z112" s="2">
-        <v>16.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="AA112" s="5">
         <v>19</v>
@@ -24834,7 +24410,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="113" spans="1:79">
+    <row r="113" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>111</v>
       </c>
@@ -25013,13 +24589,13 @@
         <v>76</v>
       </c>
       <c r="BJ113" s="4">
-        <v>17.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="BK113" s="4">
         <v>11.8</v>
       </c>
     </row>
-    <row r="114" spans="1:79">
+    <row r="114" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>112</v>
       </c>
@@ -25085,7 +24661,7 @@
         <v>16.7</v>
       </c>
       <c r="X114" s="4">
-        <v>19.1</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="Y114" s="2">
         <v>18.2</v>
@@ -25175,7 +24751,7 @@
         <v>6.35</v>
       </c>
       <c r="BD114" s="4">
-        <v>8.53</v>
+        <v>8.5299999999999994</v>
       </c>
       <c r="BE114" s="4">
         <v>59</v>
@@ -25193,7 +24769,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="115" spans="1:79">
+    <row r="115" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>113</v>
       </c>
@@ -25372,7 +24948,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="116" s="1" customFormat="1" spans="1:79">
+    <row r="116" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>114</v>
       </c>
@@ -25432,10 +25008,10 @@
         <v>45.8</v>
       </c>
       <c r="V116" s="2">
-        <v>20.1</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="W116" s="2">
-        <v>18.1</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="X116" s="4">
         <v>17.8</v>
@@ -25444,7 +25020,7 @@
         <v>20.3</v>
       </c>
       <c r="Z116" s="2">
-        <v>17.1</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="AA116" s="5">
         <v>15</v>
@@ -25516,7 +25092,7 @@
         <v>109.09</v>
       </c>
       <c r="AX116" s="4">
-        <v>140.42</v>
+        <v>140.41999999999999</v>
       </c>
       <c r="AY116" s="4">
         <v>2</v>
@@ -25559,7 +25135,7 @@
       </c>
       <c r="BL116" s="4"/>
     </row>
-    <row r="117" spans="1:79">
+    <row r="117" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>115</v>
       </c>
@@ -25622,7 +25198,7 @@
         <v>8</v>
       </c>
       <c r="W117" s="2">
-        <v>17.1</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="X117" s="4">
         <v>12.8</v>
@@ -25739,13 +25315,13 @@
         <v>77</v>
       </c>
       <c r="BJ117" s="4">
-        <v>8.7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="BK117" s="4">
         <v>7.5</v>
       </c>
     </row>
-    <row r="118" spans="1:79">
+    <row r="118" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>116</v>
       </c>
@@ -25816,7 +25392,7 @@
         <v>12</v>
       </c>
       <c r="Y118" s="2">
-        <v>18.6</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="Z118" s="2">
         <v>11.3</v>
@@ -25930,7 +25506,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="119" spans="1:79">
+    <row r="119" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>117</v>
       </c>
@@ -26096,7 +25672,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="120" spans="1:79">
+    <row r="120" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>118</v>
       </c>
@@ -26275,7 +25851,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="121" spans="1:79">
+    <row r="121" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>119</v>
       </c>
@@ -26475,7 +26051,7 @@
       <c r="BZ121" s="2"/>
       <c r="CA121" s="2"/>
     </row>
-    <row r="122" s="1" customFormat="1" spans="1:79">
+    <row r="122" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>120</v>
       </c>
@@ -26541,13 +26117,13 @@
         <v>12.1</v>
       </c>
       <c r="W122" s="2">
-        <v>16.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="X122" s="2">
         <v>21.1</v>
       </c>
       <c r="Y122" s="2">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="Z122" s="2">
         <v>13.6</v>
@@ -26622,7 +26198,7 @@
         <v>3755.15</v>
       </c>
       <c r="AX122" s="2">
-        <v>37766.4</v>
+        <v>37766.400000000001</v>
       </c>
       <c r="AY122" s="2">
         <v>1</v>
@@ -26677,7 +26253,7 @@
       <c r="BZ122" s="2"/>
       <c r="CA122" s="2"/>
     </row>
-    <row r="123" s="2" customFormat="1" spans="1:79">
+    <row r="123" spans="1:79" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>121</v>
       </c>
@@ -26739,16 +26315,16 @@
         <v>14.7</v>
       </c>
       <c r="W123" s="2">
-        <v>17.6</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="X123" s="2">
-        <v>18.6</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="Y123" s="2">
-        <v>18.1</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="Z123" s="2">
-        <v>20.1</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="AA123" s="9">
         <v>25</v>
@@ -26817,7 +26393,7 @@
         <v>70</v>
       </c>
       <c r="AW123" s="2">
-        <v>147.3</v>
+        <v>147.30000000000001</v>
       </c>
       <c r="AX123" s="2">
         <v>119</v>
@@ -26856,10 +26432,10 @@
         <v>12</v>
       </c>
       <c r="BK123" s="13">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="124" s="2" customFormat="1" spans="1:79">
+    <row r="124" spans="1:79" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>122</v>
       </c>
@@ -27044,7 +26620,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" s="2" customFormat="1" spans="1:79">
+    <row r="125" spans="1:79" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>123</v>
       </c>
@@ -27109,7 +26685,7 @@
         <v>11.3</v>
       </c>
       <c r="X125" s="2">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="Y125" s="2">
         <v>11.6</v>
@@ -27217,13 +26793,13 @@
         <v>60</v>
       </c>
       <c r="BJ125" s="2">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="BK125" s="2">
         <v>7.2</v>
       </c>
     </row>
-    <row r="126" s="2" customFormat="1" spans="1:79">
+    <row r="126" spans="1:79" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>124</v>
       </c>
@@ -27288,7 +26864,7 @@
         <v>11</v>
       </c>
       <c r="W126" s="2">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="X126" s="2">
         <v>12.4</v>
@@ -27405,13 +26981,13 @@
         <v>81</v>
       </c>
       <c r="BJ126" s="2">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="BK126" s="2">
         <v>5.3</v>
       </c>
     </row>
-    <row r="127" s="2" customFormat="1" spans="1:79">
+    <row r="127" spans="1:79" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>125</v>
       </c>
@@ -27473,7 +27049,7 @@
         <v>18.2</v>
       </c>
       <c r="W127" s="2">
-        <v>20.1</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="X127" s="2">
         <v>9</v>
@@ -27482,7 +27058,7 @@
         <v>11</v>
       </c>
       <c r="Z127" s="2">
-        <v>16.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="AA127" s="9">
         <v>9</v>
@@ -27590,7 +27166,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="128" s="2" customFormat="1" spans="1:79">
+    <row r="128" spans="1:79" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>126</v>
       </c>
@@ -27778,7 +27354,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="129" s="2" customFormat="1" spans="1:65">
+    <row r="129" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>127</v>
       </c>
@@ -27843,7 +27419,7 @@
         <v>7.8</v>
       </c>
       <c r="W129" s="2">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="X129" s="2">
         <v>15.2</v>
@@ -27960,13 +27536,13 @@
         <v>76</v>
       </c>
       <c r="BJ129" s="2">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="BK129" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="130" s="2" customFormat="1" spans="1:65">
+    <row r="130" spans="1:65" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>128</v>
       </c>
@@ -28154,7 +27730,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="131" s="3" customFormat="1" spans="1:65">
+    <row r="131" spans="1:65" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>129</v>
       </c>
@@ -28226,7 +27802,7 @@
         <v>15.6</v>
       </c>
       <c r="Z131" s="2">
-        <v>19.1</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="AA131" s="9">
         <v>42</v>
@@ -28343,7 +27919,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="132" s="3" customFormat="1" spans="1:65">
+    <row r="132" spans="1:65" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>130</v>
       </c>
@@ -28532,7 +28108,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="133" s="3" customFormat="1" spans="1:65">
+    <row r="133" spans="1:65" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>131</v>
       </c>
@@ -28592,19 +28168,19 @@
         <v>44.6</v>
       </c>
       <c r="V133" s="2">
-        <v>20.4</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="W133" s="2">
         <v>14.6</v>
       </c>
       <c r="X133" s="2">
-        <v>9.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="Y133" s="2">
         <v>10</v>
       </c>
       <c r="Z133" s="2">
-        <v>9.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="AA133" s="9">
         <v>34</v>
@@ -28721,7 +28297,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="134" s="3" customFormat="1" spans="1:65">
+    <row r="134" spans="1:65" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>132</v>
       </c>
@@ -28880,7 +28456,7 @@
         <v>188</v>
       </c>
       <c r="BC134" s="2">
-        <v>9.55</v>
+        <v>9.5500000000000007</v>
       </c>
       <c r="BD134" s="17" t="s">
         <v>574</v>
@@ -28910,7 +28486,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="135" spans="1:65">
+    <row r="135" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>133</v>
       </c>
@@ -29102,7 +28678,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="136" s="1" customFormat="1" spans="1:65">
+    <row r="136" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>134</v>
       </c>
@@ -29171,10 +28747,10 @@
         <v>12.1</v>
       </c>
       <c r="Y136" s="2">
-        <v>16.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="Z136" s="2">
-        <v>16.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="AA136" s="2">
         <v>40</v>
@@ -29294,7 +28870,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="137" spans="1:65">
+    <row r="137" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>135</v>
       </c>
@@ -29474,7 +29050,7 @@
         <v>74</v>
       </c>
       <c r="BJ137" s="2">
-        <v>19.4</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="BK137" s="2">
         <v>10.4</v>
@@ -29486,7 +29062,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="138" spans="1:65">
+    <row r="138" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>136</v>
       </c>
@@ -29546,10 +29122,10 @@
         <v>43</v>
       </c>
       <c r="V138" s="2">
-        <v>18.1</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="W138" s="2">
-        <v>9.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="X138" s="2">
         <v>15.3</v>
@@ -29678,7 +29254,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="139" spans="1:65">
+    <row r="139" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>137</v>
       </c>
@@ -29858,7 +29434,7 @@
         <v>79</v>
       </c>
       <c r="BJ139" s="2">
-        <v>16.4</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="BK139" s="2" t="s">
         <v>536</v>
@@ -29870,7 +29446,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="140" spans="1:65">
+    <row r="140" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>138</v>
       </c>
@@ -30053,7 +29629,7 @@
         <v>536</v>
       </c>
       <c r="BK140" s="2">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="BL140" s="2" t="s">
         <v>600</v>
@@ -30062,7 +29638,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="141" spans="1:65">
+    <row r="141" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>139</v>
       </c>
@@ -30122,7 +29698,7 @@
         <v>45</v>
       </c>
       <c r="V141" s="2">
-        <v>33.3</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="W141" s="2">
         <v>27.7</v>
@@ -30131,10 +29707,10 @@
         <v>31.9</v>
       </c>
       <c r="Y141" s="2">
-        <v>32.8</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="Z141" s="2">
-        <v>33.3</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="AA141" s="2">
         <v>44</v>
@@ -30254,7 +29830,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="142" spans="1:65">
+    <row r="142" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>140</v>
       </c>
@@ -30395,7 +29971,7 @@
         <v>70</v>
       </c>
       <c r="AW142" s="2">
-        <v>1302.38</v>
+        <v>1302.3800000000001</v>
       </c>
       <c r="AX142" s="2">
         <v>1064.03</v>
@@ -30446,7 +30022,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="143" spans="1:65">
+    <row r="143" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>141</v>
       </c>
@@ -30610,7 +30186,7 @@
         <v>3.65</v>
       </c>
       <c r="BD143" s="4">
-        <v>4.27</v>
+        <v>4.2699999999999996</v>
       </c>
       <c r="BE143" s="4">
         <v>59</v>
@@ -30640,7 +30216,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="144" spans="1:65">
+    <row r="144" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>142</v>
       </c>
@@ -30700,13 +30276,13 @@
         <v>41</v>
       </c>
       <c r="V144" s="2">
-        <v>35.3</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="W144" s="2">
         <v>42.4</v>
       </c>
       <c r="X144" s="2">
-        <v>38.3</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="Y144" s="2">
         <v>43.8</v>
@@ -30784,7 +30360,7 @@
         <v>847.12</v>
       </c>
       <c r="AX144" s="2">
-        <v>581.67</v>
+        <v>581.66999999999996</v>
       </c>
       <c r="AY144" s="2">
         <v>2</v>
@@ -30832,7 +30408,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="145" spans="1:65">
+    <row r="145" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>143</v>
       </c>
@@ -30991,7 +30567,7 @@
         <v>199</v>
       </c>
       <c r="BC145" s="4">
-        <v>2.45</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="BD145" s="4">
         <v>1.79</v>
@@ -31024,7 +30600,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="146" spans="1:65">
+    <row r="146" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>144</v>
       </c>
@@ -31165,10 +30741,10 @@
         <v>612</v>
       </c>
       <c r="AW146" s="2">
-        <v>258.9</v>
+        <v>258.89999999999998</v>
       </c>
       <c r="AX146" s="2">
-        <v>315.4</v>
+        <v>315.39999999999998</v>
       </c>
       <c r="AY146" s="2">
         <v>1</v>
@@ -31210,7 +30786,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="147" s="1" customFormat="1" spans="1:65">
+    <row r="147" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>145</v>
       </c>
@@ -31402,7 +30978,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="148" spans="1:65">
+    <row r="148" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>146</v>
       </c>
@@ -31464,7 +31040,7 @@
         <v>48</v>
       </c>
       <c r="V148" s="2">
-        <v>16.1</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="W148" s="2">
         <v>13.1</v>
@@ -31587,10 +31163,10 @@
         <v>21.2</v>
       </c>
       <c r="BK148" s="4">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="149" spans="1:65">
+    <row r="149" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>147</v>
       </c>
@@ -31781,7 +31357,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="150" spans="1:65">
+    <row r="150" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>148</v>
       </c>
@@ -31970,7 +31546,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="151" spans="1:65">
+    <row r="151" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>149</v>
       </c>
@@ -32036,7 +31612,7 @@
         <v>28.8</v>
       </c>
       <c r="X151" s="4">
-        <v>20.1</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="Y151" s="2">
         <v>26.4</v>
@@ -32159,7 +31735,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="152" spans="1:65">
+    <row r="152" spans="1:65" x14ac:dyDescent="0.2">
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
       <c r="E152" s="2"/>
@@ -32175,7 +31751,7 @@
       <c r="Q152" s="2"/>
       <c r="R152" s="2"/>
     </row>
-    <row r="153" spans="1:65">
+    <row r="153" spans="1:65" x14ac:dyDescent="0.2">
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
       <c r="E153" s="2"/>
@@ -32191,7 +31767,7 @@
       <c r="Q153" s="2"/>
       <c r="R153" s="2"/>
     </row>
-    <row r="154" spans="1:65">
+    <row r="154" spans="1:65" x14ac:dyDescent="0.2">
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
       <c r="E154" s="2"/>
@@ -32207,7 +31783,7 @@
       <c r="Q154" s="2"/>
       <c r="R154" s="2"/>
     </row>
-    <row r="155" spans="1:65">
+    <row r="155" spans="1:65" x14ac:dyDescent="0.2">
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
       <c r="E155" s="2"/>
@@ -32223,7 +31799,7 @@
       <c r="Q155" s="2"/>
       <c r="R155" s="2"/>
     </row>
-    <row r="156" spans="1:65">
+    <row r="156" spans="1:65" x14ac:dyDescent="0.2">
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
       <c r="E156" s="2"/>
@@ -32239,7 +31815,7 @@
       <c r="Q156" s="2"/>
       <c r="R156" s="2"/>
     </row>
-    <row r="157" spans="1:65">
+    <row r="157" spans="1:65" x14ac:dyDescent="0.2">
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
       <c r="E157" s="2"/>
@@ -32255,7 +31831,7 @@
       <c r="Q157" s="2"/>
       <c r="R157" s="2"/>
     </row>
-    <row r="158" spans="1:65">
+    <row r="158" spans="1:65" x14ac:dyDescent="0.2">
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
       <c r="E158" s="2"/>
@@ -32271,7 +31847,7 @@
       <c r="Q158" s="2"/>
       <c r="R158" s="2"/>
     </row>
-    <row r="159" spans="1:65">
+    <row r="159" spans="1:65" x14ac:dyDescent="0.2">
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
       <c r="E159" s="2"/>
@@ -32287,7 +31863,7 @@
       <c r="Q159" s="2"/>
       <c r="R159" s="2"/>
     </row>
-    <row r="160" spans="1:65">
+    <row r="160" spans="1:65" x14ac:dyDescent="0.2">
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
       <c r="E160" s="2"/>
@@ -32303,7 +31879,7 @@
       <c r="Q160" s="2"/>
       <c r="R160" s="2"/>
     </row>
-    <row r="161" spans="1:64">
+    <row r="161" spans="1:64" x14ac:dyDescent="0.2">
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
       <c r="E161" s="2"/>
@@ -32319,7 +31895,7 @@
       <c r="Q161" s="2"/>
       <c r="R161" s="2"/>
     </row>
-    <row r="162" spans="1:64">
+    <row r="162" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>645</v>
       </c>
@@ -32338,7 +31914,7 @@
       <c r="Q162" s="2"/>
       <c r="R162" s="2"/>
     </row>
-    <row r="163" spans="1:64">
+    <row r="163" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
         <v>1</v>
       </c>
@@ -32387,7 +31963,7 @@
       <c r="P163" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="Q163" s="6" t="s">
+      <c r="Q163" s="22" t="s">
         <v>17</v>
       </c>
       <c r="R163" t="s">
@@ -32402,7 +31978,7 @@
       <c r="U163" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="V163" s="7" t="s">
+      <c r="V163" s="22" t="s">
         <v>22</v>
       </c>
       <c r="W163" s="7" t="s">
@@ -32417,7 +31993,7 @@
       <c r="Z163" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="AA163" s="8" t="s">
+      <c r="AA163" s="22" t="s">
         <v>27</v>
       </c>
       <c r="AB163" s="9" t="s">
@@ -32432,7 +32008,7 @@
       <c r="AE163" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="AF163" s="6" t="s">
+      <c r="AF163" s="22" t="s">
         <v>32</v>
       </c>
       <c r="AG163" s="10" t="s">
@@ -32447,7 +32023,7 @@
       <c r="AJ163" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="AK163" s="6" t="s">
+      <c r="AK163" s="22" t="s">
         <v>37</v>
       </c>
       <c r="AL163" s="10" t="s">
@@ -32462,7 +32038,7 @@
       <c r="AO163" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="AP163" s="6" t="s">
+      <c r="AP163" s="22" t="s">
         <v>42</v>
       </c>
       <c r="AQ163" s="10" t="s">
@@ -32477,13 +32053,13 @@
       <c r="AT163" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="AU163" s="6" t="s">
+      <c r="AU163" s="22" t="s">
         <v>47</v>
       </c>
       <c r="AV163" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="AW163" s="10" t="s">
+      <c r="AW163" s="23" t="s">
         <v>49</v>
       </c>
       <c r="AX163" s="10" t="s">
@@ -32495,19 +32071,19 @@
       <c r="AZ163" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="BA163" s="6" t="s">
+      <c r="BA163" s="22" t="s">
         <v>53</v>
       </c>
       <c r="BB163" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="BC163" s="6" t="s">
+      <c r="BC163" s="22" t="s">
         <v>55</v>
       </c>
       <c r="BD163" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="BE163" s="6" t="s">
+      <c r="BE163" s="22" t="s">
         <v>57</v>
       </c>
       <c r="BF163" s="6" t="s">
@@ -32522,7 +32098,7 @@
       <c r="BI163" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="BJ163" s="6" t="s">
+      <c r="BJ163" s="22" t="s">
         <v>62</v>
       </c>
       <c r="BK163" s="6" t="s">
@@ -32532,7 +32108,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="164" spans="1:64">
+    <row r="164" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>1</v>
       </c>
@@ -32688,7 +32264,7 @@
         <v>2.8</v>
       </c>
       <c r="BD164" s="4">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="BE164" s="4">
         <v>66</v>
@@ -32709,10 +32285,10 @@
         <v>12.3</v>
       </c>
       <c r="BK164" s="13">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="165" spans="1:64">
+    <row r="165" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>2</v>
       </c>
@@ -32834,7 +32410,7 @@
         <v>70</v>
       </c>
       <c r="AW165" s="4">
-        <v>5198.98</v>
+        <v>5198.9799999999996</v>
       </c>
       <c r="AX165" s="4">
         <v>6540.89</v>
@@ -32858,7 +32434,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="166" spans="1:64">
+    <row r="166" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>3</v>
       </c>
@@ -32929,7 +32505,7 @@
         <v>20.5</v>
       </c>
       <c r="Z166" s="2">
-        <v>18.4</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="AA166" s="5">
         <v>23</v>
@@ -32998,7 +32574,7 @@
         <v>70</v>
       </c>
       <c r="AW166" s="4">
-        <v>1273.11</v>
+        <v>1273.1099999999999</v>
       </c>
       <c r="AX166" s="4">
         <v>1168.05</v>
@@ -33022,7 +32598,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="167" spans="1:64">
+    <row r="167" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>4</v>
       </c>
@@ -33150,10 +32726,10 @@
         <v>1.52</v>
       </c>
       <c r="BK167" s="4">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="168" spans="1:64">
+    <row r="168" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>5</v>
       </c>
@@ -33291,7 +32867,7 @@
         <v>70</v>
       </c>
       <c r="AW168" s="4">
-        <v>140.2</v>
+        <v>140.19999999999999</v>
       </c>
       <c r="AX168" s="4">
         <v>361.54</v>
@@ -33312,7 +32888,7 @@
         <v>2.39</v>
       </c>
       <c r="BD168" s="4">
-        <v>2.32</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="BE168" s="4">
         <v>83</v>
@@ -33330,7 +32906,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="169" spans="1:64">
+    <row r="169" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>6</v>
       </c>
@@ -33510,7 +33086,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="170" spans="1:64">
+    <row r="170" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>7</v>
       </c>
@@ -33681,7 +33257,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="171" spans="1:64">
+    <row r="171" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>8</v>
       </c>
@@ -33846,13 +33422,13 @@
         <v>94</v>
       </c>
       <c r="BJ171" s="4">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="BK171" s="4">
         <v>8.1</v>
       </c>
     </row>
-    <row r="172" spans="1:64">
+    <row r="172" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>9</v>
       </c>
@@ -34031,7 +33607,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="173" spans="1:64">
+    <row r="173" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>10</v>
       </c>
@@ -34171,7 +33747,7 @@
         <v>70</v>
       </c>
       <c r="AW173" s="4">
-        <v>633.06</v>
+        <v>633.05999999999995</v>
       </c>
       <c r="AX173" s="4">
         <v>737.03</v>
@@ -34189,7 +33765,7 @@
         <v>196</v>
       </c>
       <c r="BC173" s="4">
-        <v>2.01</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="BD173" s="4">
         <v>2.31</v>
@@ -34210,7 +33786,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="174" spans="1:64">
+    <row r="174" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>11</v>
       </c>
@@ -34281,7 +33857,7 @@
         <v>13.6</v>
       </c>
       <c r="Z174" s="2">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="AA174" s="5">
         <v>25</v>
@@ -34392,7 +33968,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="175" spans="1:64">
+    <row r="175" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>12</v>
       </c>
@@ -34571,7 +34147,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="176" spans="1:64">
+    <row r="176" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>13</v>
       </c>
@@ -34633,7 +34209,7 @@
         <v>21.8</v>
       </c>
       <c r="W176" s="2">
-        <v>20.1</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="X176" s="4">
         <v>17.2</v>
@@ -34747,10 +34323,10 @@
         <v>12.8</v>
       </c>
       <c r="BK176" s="13">
-        <v>9.8</v>
+        <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="177" spans="1:64">
+    <row r="177" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>14</v>
       </c>
@@ -34882,7 +34458,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="178" spans="1:64">
+    <row r="178" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>15</v>
       </c>
@@ -34942,7 +34518,7 @@
         <v>11.6</v>
       </c>
       <c r="W178" s="2">
-        <v>20.1</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="X178" s="4">
         <v>24.9</v>
@@ -35041,7 +34617,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="179" spans="1:64">
+    <row r="179" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>16</v>
       </c>
@@ -35182,7 +34758,7 @@
         <v>373.09</v>
       </c>
       <c r="AX179" s="4">
-        <v>532.55</v>
+        <v>532.54999999999995</v>
       </c>
       <c r="AY179" s="4">
         <v>2</v>
@@ -35218,7 +34794,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="180" spans="1:64">
+    <row r="180" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>17</v>
       </c>
@@ -35406,7 +34982,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="181" spans="1:64">
+    <row r="181" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>18</v>
       </c>
@@ -35546,7 +35122,7 @@
         <v>70</v>
       </c>
       <c r="AW181" s="4">
-        <v>64.35</v>
+        <v>64.349999999999994</v>
       </c>
       <c r="AX181" s="4">
         <v>60.4</v>
@@ -35591,7 +35167,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="182" s="1" customFormat="1" spans="1:64">
+    <row r="182" spans="1:64" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>19</v>
       </c>
@@ -35649,7 +35225,7 @@
         <v>44</v>
       </c>
       <c r="V182" s="2">
-        <v>16.4</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="W182" s="2">
         <v>23.7</v>
@@ -35658,10 +35234,10 @@
         <v>14.9</v>
       </c>
       <c r="Y182" s="2">
-        <v>19.9</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="Z182" s="2">
-        <v>19.9</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="AA182" s="5">
         <v>43</v>
@@ -35760,11 +35336,11 @@
         <v>16.5</v>
       </c>
       <c r="BK182" s="13">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="BL182" s="4"/>
     </row>
-    <row r="183" spans="1:64">
+    <row r="183" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>20</v>
       </c>
@@ -35905,7 +35481,7 @@
         <v>1550.38</v>
       </c>
       <c r="AX183" s="4">
-        <v>1031.84</v>
+        <v>1031.8399999999999</v>
       </c>
       <c r="AY183" s="4">
         <v>2</v>
@@ -35935,13 +35511,13 @@
         <v>74</v>
       </c>
       <c r="BJ183" s="13">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="BK183" s="13">
         <v>11.6</v>
       </c>
     </row>
-    <row r="184" spans="1:64">
+    <row r="184" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>21</v>
       </c>
@@ -36010,7 +35586,7 @@
         <v>17.5</v>
       </c>
       <c r="Z184" s="2">
-        <v>19.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="AA184" s="5">
         <v>15</v>
@@ -36082,7 +35658,7 @@
         <v>7693.24</v>
       </c>
       <c r="AX184" s="4">
-        <v>8319.46</v>
+        <v>8319.4599999999991</v>
       </c>
       <c r="AY184" s="4">
         <v>1</v>
@@ -36115,13 +35691,13 @@
         <v>62</v>
       </c>
       <c r="BJ184" s="4">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="BK184" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="185" spans="1:64">
+    <row r="185" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>22</v>
       </c>
@@ -36173,7 +35749,7 @@
         <v>45</v>
       </c>
       <c r="V185" s="2">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="X185" s="4">
         <v>22</v>
@@ -36227,7 +35803,7 @@
         <v>45.17</v>
       </c>
       <c r="AX185" s="4">
-        <v>32.91</v>
+        <v>32.909999999999997</v>
       </c>
       <c r="AY185" s="4">
         <v>2</v>
@@ -36260,7 +35836,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="186" spans="1:64">
+    <row r="186" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>23</v>
       </c>
@@ -36317,13 +35893,13 @@
         <v>43</v>
       </c>
       <c r="V186" s="2">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="W186" s="2">
-        <v>32.7</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="X186" s="4">
-        <v>37.8</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="Y186" s="2">
         <v>26.6</v>
@@ -36443,7 +36019,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="187" spans="1:64">
+    <row r="187" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>24</v>
       </c>
@@ -36502,7 +36078,7 @@
         <v>47</v>
       </c>
       <c r="V187" s="2">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="W187" s="2">
         <v>9.4</v>
@@ -36583,7 +36159,7 @@
         <v>70</v>
       </c>
       <c r="AW187" s="4">
-        <v>2130.45</v>
+        <v>2130.4499999999998</v>
       </c>
       <c r="AX187" s="4">
         <v>1574.3</v>
@@ -36619,13 +36195,13 @@
         <v>86</v>
       </c>
       <c r="BJ187" s="13">
-        <v>16.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="BK187" s="13">
         <v>11.8</v>
       </c>
     </row>
-    <row r="188" spans="1:64">
+    <row r="188" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>25</v>
       </c>
@@ -36682,7 +36258,7 @@
         <v>45</v>
       </c>
       <c r="V188" s="2">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="W188" s="2">
         <v>12.9</v>
@@ -36796,7 +36372,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="189" spans="1:64">
+    <row r="189" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>26</v>
       </c>
@@ -36864,10 +36440,10 @@
         <v>10.3</v>
       </c>
       <c r="Y189" s="2">
-        <v>9.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="Z189" s="2">
-        <v>18.6</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="AA189" s="5">
         <v>16</v>
@@ -36957,13 +36533,13 @@
         <v>94</v>
       </c>
       <c r="BJ189" s="13">
-        <v>16.4</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="BK189" s="13">
         <v>11.6</v>
       </c>
     </row>
-    <row r="190" s="1" customFormat="1" spans="1:64">
+    <row r="190" spans="1:64" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>27</v>
       </c>
@@ -37021,10 +36597,10 @@
         <v>45</v>
       </c>
       <c r="V190" s="2">
-        <v>18.4</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="W190" s="2">
-        <v>20.1</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="X190" s="4">
         <v>20.7</v>
@@ -37121,7 +36697,7 @@
         <v>7.04</v>
       </c>
       <c r="BD190" s="4">
-        <v>5.11</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="BE190" s="4">
         <v>76</v>
@@ -37144,7 +36720,7 @@
       </c>
       <c r="BL190" s="4"/>
     </row>
-    <row r="191" spans="1:64">
+    <row r="191" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>28</v>
       </c>
@@ -37283,7 +36859,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="192" spans="1:64">
+    <row r="192" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>29</v>
       </c>
@@ -37413,7 +36989,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="193" spans="1:64">
+    <row r="193" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>30</v>
       </c>
@@ -37548,7 +37124,7 @@
         <v>70</v>
       </c>
       <c r="AW193" s="4">
-        <v>1264.4</v>
+        <v>1264.4000000000001</v>
       </c>
       <c r="AX193" s="4">
         <v>1884.25</v>
@@ -37581,7 +37157,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="194" spans="1:64">
+    <row r="194" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>31</v>
       </c>
@@ -37641,7 +37217,7 @@
         <v>13.5</v>
       </c>
       <c r="W194" s="2">
-        <v>17.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="X194" s="4">
         <v>14.4</v>
@@ -37719,7 +37295,7 @@
         <v>70</v>
       </c>
       <c r="AW194" s="4">
-        <v>626.33</v>
+        <v>626.33000000000004</v>
       </c>
       <c r="AX194" s="4">
         <v>807.5</v>
@@ -37758,7 +37334,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="195" spans="1:64">
+    <row r="195" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>32</v>
       </c>
@@ -37823,10 +37399,10 @@
         <v>14.4</v>
       </c>
       <c r="X195" s="4">
-        <v>16.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="Y195" s="2">
-        <v>17.9</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="Z195" s="2">
         <v>19.8</v>
@@ -37925,10 +37501,10 @@
         <v>13.7</v>
       </c>
       <c r="BK195" s="14">
-        <v>8.7</v>
+        <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="196" spans="1:64">
+    <row r="196" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>33</v>
       </c>
@@ -37980,7 +37556,7 @@
         <v>46</v>
       </c>
       <c r="V196" s="2">
-        <v>19.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="X196" s="4">
         <v>15</v>
@@ -38055,7 +37631,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="197" spans="1:64">
+    <row r="197" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>34</v>
       </c>
@@ -38213,7 +37789,7 @@
         <v>159</v>
       </c>
       <c r="BC197" s="4">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="BD197" s="4">
         <v>1.8</v>
@@ -38237,7 +37813,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="198" spans="1:64">
+    <row r="198" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>35</v>
       </c>
@@ -38378,7 +37954,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="199" spans="1:64">
+    <row r="199" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>36</v>
       </c>
@@ -38520,7 +38096,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="200" spans="1:64">
+    <row r="200" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>37</v>
       </c>
@@ -38579,7 +38155,7 @@
         <v>48</v>
       </c>
       <c r="V200" s="2">
-        <v>18.9</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="W200" s="2">
         <v>16.7</v>
@@ -38591,7 +38167,7 @@
         <v>17.5</v>
       </c>
       <c r="Z200" s="2">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="AA200" s="5">
         <v>26</v>
@@ -38696,7 +38272,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="201" s="1" customFormat="1" spans="1:64">
+    <row r="201" spans="1:64" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>38</v>
       </c>
@@ -38840,7 +38416,7 @@
         <v>813.14</v>
       </c>
       <c r="AX201" s="4">
-        <v>600.43</v>
+        <v>600.42999999999995</v>
       </c>
       <c r="AY201" s="4">
         <v>2</v>
@@ -38856,7 +38432,7 @@
       </c>
       <c r="BC201" s="4"/>
       <c r="BD201" s="4">
-        <v>8.47</v>
+        <v>8.4700000000000006</v>
       </c>
       <c r="BE201" s="4">
         <v>84</v>
@@ -38877,7 +38453,7 @@
       </c>
       <c r="BL201" s="4"/>
     </row>
-    <row r="202" spans="1:64">
+    <row r="202" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>39</v>
       </c>
@@ -39010,7 +38586,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="203" spans="1:64">
+    <row r="203" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>40</v>
       </c>
@@ -39166,7 +38742,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="204" spans="1:64">
+    <row r="204" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>41</v>
       </c>
@@ -39235,7 +38811,7 @@
         <v>31.3</v>
       </c>
       <c r="Z204" s="2">
-        <v>34.2</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="AA204" s="5">
         <v>49</v>
@@ -39322,7 +38898,7 @@
         <v>181</v>
       </c>
       <c r="BC204" s="4">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="BD204" s="4">
         <v>4.53</v>
@@ -39352,7 +38928,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="205" spans="1:64">
+    <row r="205" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>42</v>
       </c>
@@ -39410,7 +38986,7 @@
         <v>15.2</v>
       </c>
       <c r="Z205" s="2">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="AA205" s="5">
         <v>9</v>
@@ -39455,7 +39031,7 @@
         <v>70</v>
       </c>
       <c r="AW205" s="4">
-        <v>2461.53</v>
+        <v>2461.5300000000002</v>
       </c>
       <c r="AX205" s="4">
         <v>2414.21</v>
@@ -39491,7 +39067,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="206" spans="1:64">
+    <row r="206" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>43</v>
       </c>
@@ -39614,7 +39190,7 @@
         <v>156</v>
       </c>
       <c r="BC206" s="4">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BD206" s="4">
         <v>1.2</v>
@@ -39632,10 +39208,10 @@
         <v>21</v>
       </c>
       <c r="BK206" s="4">
-        <v>17.6</v>
+        <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="207" spans="1:64">
+    <row r="207" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>44</v>
       </c>
@@ -39753,7 +39329,7 @@
         <v>2.27</v>
       </c>
       <c r="BD207" s="4">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="BE207" s="4">
         <v>86</v>
@@ -39762,10 +39338,10 @@
         <v>106</v>
       </c>
       <c r="BJ207" s="4">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="208" spans="1:64">
+    <row r="208" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>45</v>
       </c>
@@ -39822,13 +39398,13 @@
         <v>12.1</v>
       </c>
       <c r="W208" s="2">
-        <v>9.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="X208" s="4">
         <v>10.8</v>
       </c>
       <c r="Z208" s="2">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="AA208" s="5">
         <v>16</v>
@@ -39888,7 +39464,7 @@
         <v>3484.07</v>
       </c>
       <c r="AX208" s="4">
-        <v>2433.07</v>
+        <v>2433.0700000000002</v>
       </c>
       <c r="AY208" s="4">
         <v>2</v>
@@ -39897,7 +39473,7 @@
         <v>2</v>
       </c>
       <c r="BC208" s="4">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="BD208" s="4" t="s">
         <v>255</v>
@@ -39918,7 +39494,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="209" spans="1:64">
+    <row r="209" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>46</v>
       </c>
@@ -40056,7 +39632,7 @@
         <v>70</v>
       </c>
       <c r="AW209" s="4">
-        <v>38.16</v>
+        <v>38.159999999999997</v>
       </c>
       <c r="AX209" s="4">
         <v>276.58</v>
@@ -40104,7 +39680,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="210" spans="1:64">
+    <row r="210" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>47</v>
       </c>
@@ -40234,7 +39810,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="211" spans="1:64">
+    <row r="211" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>48</v>
       </c>
@@ -40286,7 +39862,7 @@
         <v>44</v>
       </c>
       <c r="V211" s="2">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="X211" s="4">
         <v>10</v>
@@ -40367,7 +39943,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="212" s="1" customFormat="1" spans="1:64">
+    <row r="212" spans="1:64" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>49</v>
       </c>
@@ -40430,7 +40006,7 @@
         <v>10</v>
       </c>
       <c r="W212" s="2">
-        <v>8.7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="X212" s="4">
         <v>7.9</v>
@@ -40508,7 +40084,7 @@
         <v>70</v>
       </c>
       <c r="AW212" s="4">
-        <v>5151.85</v>
+        <v>5151.8500000000004</v>
       </c>
       <c r="AX212" s="4">
         <v>2942.98</v>
@@ -40554,7 +40130,7 @@
       </c>
       <c r="BL212" s="4"/>
     </row>
-    <row r="213" spans="1:64">
+    <row r="213" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>50</v>
       </c>
@@ -40737,7 +40313,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="214" spans="1:64">
+    <row r="214" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>51</v>
       </c>
@@ -40840,10 +40416,10 @@
         <v>70</v>
       </c>
       <c r="AW214" s="4">
-        <v>2502.218</v>
+        <v>2502.2179999999998</v>
       </c>
       <c r="AX214" s="4">
-        <v>2250.74</v>
+        <v>2250.7399999999998</v>
       </c>
       <c r="AY214" s="4">
         <v>2</v>
@@ -40870,7 +40446,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="215" spans="1:64">
+    <row r="215" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>52</v>
       </c>
@@ -40924,10 +40500,10 @@
         <v>49</v>
       </c>
       <c r="V215" s="2">
-        <v>9.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="W215" s="2">
-        <v>9.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="X215" s="4">
         <v>12</v>
@@ -41029,7 +40605,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="216" spans="1:64">
+    <row r="216" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>53</v>
       </c>
@@ -41147,7 +40723,7 @@
         <v>1.7</v>
       </c>
       <c r="BD216" s="4">
-        <v>2.26</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="BE216" s="4">
         <v>83</v>
@@ -41165,7 +40741,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="217" s="1" customFormat="1" spans="1:64">
+    <row r="217" spans="1:64" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>54</v>
       </c>
@@ -41334,7 +40910,7 @@
       </c>
       <c r="BL217" s="4"/>
     </row>
-    <row r="218" spans="1:64">
+    <row r="218" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>55</v>
       </c>
@@ -41392,7 +40968,7 @@
         <v>10.5</v>
       </c>
       <c r="Z218" s="2">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="AA218" s="5">
         <v>43</v>
@@ -41464,7 +41040,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="219" spans="1:64">
+    <row r="219" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>56</v>
       </c>
@@ -41521,7 +41097,7 @@
         <v>13.6</v>
       </c>
       <c r="X219" s="4">
-        <v>16.4</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="Z219" s="2">
         <v>12.1</v>
@@ -41593,7 +41169,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="220" spans="1:64">
+    <row r="220" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>57</v>
       </c>
@@ -41748,7 +41324,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="221" spans="1:64">
+    <row r="221" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>58</v>
       </c>
@@ -41851,10 +41427,10 @@
         <v>70</v>
       </c>
       <c r="AW221" s="4">
-        <v>4815.61</v>
+        <v>4815.6099999999997</v>
       </c>
       <c r="AX221" s="4">
-        <v>4162.52</v>
+        <v>4162.5200000000004</v>
       </c>
       <c r="AY221" s="4">
         <v>1</v>
@@ -41863,10 +41439,10 @@
         <v>1</v>
       </c>
       <c r="BC221" s="4">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BD221" s="4">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BE221" s="4">
         <v>81</v>
@@ -41881,7 +41457,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="222" spans="1:64">
+    <row r="222" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>59</v>
       </c>
@@ -42028,7 +41604,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="223" spans="1:64">
+    <row r="223" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>60</v>
       </c>
@@ -42164,7 +41740,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="224" spans="1:64">
+    <row r="224" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>61</v>
       </c>
@@ -42335,7 +41911,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="225" spans="1:64">
+    <row r="225" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>62</v>
       </c>
@@ -42488,7 +42064,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="226" spans="1:64">
+    <row r="226" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>63</v>
       </c>
@@ -42551,7 +42127,7 @@
         <v>29.9</v>
       </c>
       <c r="X226" s="4">
-        <v>32.3</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="Y226" s="2">
         <v>45.3</v>
@@ -42656,13 +42232,13 @@
         <v>106</v>
       </c>
       <c r="BJ226" s="14">
-        <v>16.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="BK226" s="13">
         <v>11.5</v>
       </c>
     </row>
-    <row r="227" spans="1:64">
+    <row r="227" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>64</v>
       </c>
@@ -42815,7 +42391,7 @@
         <v>289</v>
       </c>
       <c r="BD227" s="4">
-        <v>4.35</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="BE227" s="4">
         <v>77</v>
@@ -42833,7 +42409,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="228" spans="1:64">
+    <row r="228" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>65</v>
       </c>
@@ -43010,7 +42586,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="229" spans="1:64">
+    <row r="229" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>66</v>
       </c>
@@ -43065,7 +42641,7 @@
         <v>14.9</v>
       </c>
       <c r="X229" s="4">
-        <v>17.9</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="Z229" s="2">
         <v>24.3</v>
@@ -43137,7 +42713,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="230" spans="1:64">
+    <row r="230" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>67</v>
       </c>
@@ -43194,7 +42770,7 @@
         <v>44</v>
       </c>
       <c r="V230" s="2">
-        <v>16.4</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="W230" s="2">
         <v>18.5</v>
@@ -43317,7 +42893,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="231" spans="1:64">
+    <row r="231" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>68</v>
       </c>
@@ -43456,7 +43032,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="232" spans="1:64">
+    <row r="232" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>69</v>
       </c>
@@ -43612,10 +43188,10 @@
         <v>10.3</v>
       </c>
       <c r="BK232" s="13">
-        <v>9.3</v>
+        <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="233" spans="1:64">
+    <row r="233" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>70</v>
       </c>
@@ -43747,7 +43323,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="234" spans="1:64">
+    <row r="234" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>71</v>
       </c>
@@ -43899,7 +43475,7 @@
         <v>253</v>
       </c>
       <c r="BC234" s="4">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="BD234" s="4">
         <v>3.04</v>
@@ -43926,7 +43502,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="235" spans="1:64">
+    <row r="235" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>72</v>
       </c>
@@ -43988,7 +43564,7 @@
         <v>13.5</v>
       </c>
       <c r="X235" s="4">
-        <v>9.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="Z235" s="2">
         <v>14.9</v>
@@ -44072,10 +43648,10 @@
         <v>11.1</v>
       </c>
       <c r="BK235" s="13">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="236" spans="1:64">
+    <row r="236" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>73</v>
       </c>
@@ -44216,7 +43792,7 @@
         <v>1672.38</v>
       </c>
       <c r="AX236" s="4">
-        <v>2334.45</v>
+        <v>2334.4499999999998</v>
       </c>
       <c r="AY236" s="4">
         <v>1</v>
@@ -44252,7 +43828,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="237" spans="1:64">
+    <row r="237" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>74</v>
       </c>
@@ -44306,7 +43882,7 @@
         <v>9.9</v>
       </c>
       <c r="Z237" s="2">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="AA237" s="5">
         <v>15</v>
@@ -44372,7 +43948,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="238" spans="1:64">
+    <row r="238" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>75</v>
       </c>
@@ -44511,7 +44087,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="239" spans="1:64">
+    <row r="239" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>76</v>
       </c>
@@ -44685,7 +44261,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="240" spans="1:64">
+    <row r="240" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>77</v>
       </c>
@@ -44748,7 +44324,7 @@
         <v>12.1</v>
       </c>
       <c r="X240" s="4">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="Y240" s="2">
         <v>14.8</v>
@@ -44823,7 +44399,7 @@
         <v>70</v>
       </c>
       <c r="AW240" s="4">
-        <v>641.06</v>
+        <v>641.05999999999995</v>
       </c>
       <c r="AX240" s="4">
         <v>1122.69</v>
@@ -44844,7 +44420,7 @@
         <v>3.03</v>
       </c>
       <c r="BD240" s="4">
-        <v>2.22</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="BE240" s="4">
         <v>81</v>
@@ -44868,7 +44444,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="241" spans="1:64">
+    <row r="241" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>78</v>
       </c>
@@ -44989,7 +44565,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="242" spans="1:64">
+    <row r="242" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>79</v>
       </c>
@@ -45151,7 +44727,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="243" spans="1:64">
+    <row r="243" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>80</v>
       </c>
@@ -45191,7 +44767,6 @@
       <c r="M243" s="2">
         <v>2</v>
       </c>
-      <c r="N243" s="4"/>
       <c r="P243" s="2" t="s">
         <v>906</v>
       </c>
@@ -45334,7 +44909,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="244" spans="1:64">
+    <row r="244" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>81</v>
       </c>
@@ -45374,7 +44949,6 @@
       <c r="M244" s="2">
         <v>1</v>
       </c>
-      <c r="N244" s="4"/>
       <c r="P244" s="2" t="s">
         <v>910</v>
       </c>
@@ -45383,7 +44957,7 @@
       </c>
       <c r="R244" s="2"/>
       <c r="V244" s="2">
-        <v>17.9</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="AA244" s="5">
         <v>15</v>
@@ -45401,7 +44975,7 @@
         <v>70</v>
       </c>
       <c r="AW244" s="4">
-        <v>574.68</v>
+        <v>574.67999999999995</v>
       </c>
       <c r="AY244" s="4">
         <v>2</v>
@@ -45422,7 +44996,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="245" s="1" customFormat="1" spans="1:64">
+    <row r="245" spans="1:64" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>82</v>
       </c>
@@ -45561,7 +45135,7 @@
         <v>70</v>
       </c>
       <c r="AW245" s="4">
-        <v>18809.6</v>
+        <v>18809.599999999999</v>
       </c>
       <c r="AX245" s="4">
         <v>20328.41</v>
@@ -45578,7 +45152,7 @@
         <v>2.75</v>
       </c>
       <c r="BD245" s="4">
-        <v>2.28</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="BE245" s="4">
         <v>68</v>
@@ -45599,7 +45173,7 @@
       </c>
       <c r="BL245" s="4"/>
     </row>
-    <row r="246" spans="1:64">
+    <row r="246" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>83</v>
       </c>
@@ -45779,7 +45353,7 @@
         <v>15.4</v>
       </c>
     </row>
-    <row r="247" spans="1:64">
+    <row r="247" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>84</v>
       </c>
@@ -45848,7 +45422,7 @@
         <v>43.7</v>
       </c>
       <c r="Z247" s="2">
-        <v>32.7</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="AA247" s="5">
         <v>21</v>
@@ -45917,10 +45491,10 @@
         <v>70</v>
       </c>
       <c r="AW247" s="4">
-        <v>64.18</v>
+        <v>64.180000000000007</v>
       </c>
       <c r="AX247" s="4">
-        <v>131.27</v>
+        <v>131.27000000000001</v>
       </c>
       <c r="AY247" s="4">
         <v>2</v>
@@ -45956,7 +45530,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="248" spans="1:64">
+    <row r="248" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>85</v>
       </c>
@@ -46133,10 +45707,10 @@
         <v>13.8</v>
       </c>
       <c r="BK248" s="13">
-        <v>9.8</v>
+        <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="249" spans="1:64">
+    <row r="249" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>86</v>
       </c>
@@ -46319,7 +45893,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="250" spans="1:64">
+    <row r="250" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>87</v>
       </c>
@@ -46384,7 +45958,7 @@
         <v>16.5</v>
       </c>
       <c r="X250" s="4">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="Y250" s="2">
         <v>11.3</v>
@@ -46477,7 +46051,7 @@
         <v>234</v>
       </c>
       <c r="BC250" s="4">
-        <v>2.51</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="BD250" s="4">
         <v>2.29</v>
@@ -46504,7 +46078,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="251" spans="1:64">
+    <row r="251" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>88</v>
       </c>
@@ -46561,7 +46135,7 @@
         <v>46</v>
       </c>
       <c r="V251" s="2">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="W251" s="2">
         <v>13.7</v>
@@ -46657,7 +46231,7 @@
         <v>2.4</v>
       </c>
       <c r="BD251" s="4">
-        <v>2.43</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="BG251" s="4">
         <v>86</v>
@@ -46672,7 +46246,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="252" spans="1:64">
+    <row r="252" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>89</v>
       </c>
@@ -46736,7 +46310,7 @@
         <v>11.9</v>
       </c>
       <c r="Z252" s="2">
-        <v>19.1</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="AA252" s="5">
         <v>31</v>
@@ -46805,10 +46379,10 @@
         <v>173</v>
       </c>
       <c r="BC252" s="4">
-        <v>2.43</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="BD252" s="4">
-        <v>2.43</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="BE252" s="4">
         <v>85</v>
@@ -46829,7 +46403,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="253" s="1" customFormat="1" spans="1:64">
+    <row r="253" spans="1:64" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>90</v>
       </c>
@@ -47005,14 +46579,14 @@
         <v>73</v>
       </c>
       <c r="BJ253" s="13">
-        <v>9.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="BK253" s="13">
         <v>9.5</v>
       </c>
       <c r="BL253" s="4"/>
     </row>
-    <row r="254" spans="1:64">
+    <row r="254" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>91</v>
       </c>
@@ -47074,7 +46648,7 @@
         <v>13</v>
       </c>
       <c r="X254" s="4">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="Z254" s="2">
         <v>10.9</v>
@@ -47158,7 +46732,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="255" spans="1:64">
+    <row r="255" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>92</v>
       </c>
@@ -47278,7 +46852,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="256" spans="1:64">
+    <row r="256" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>93</v>
       </c>
@@ -47392,7 +46966,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="257" spans="1:72">
+    <row r="257" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>94</v>
       </c>
@@ -47544,7 +47118,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="258" s="2" customFormat="1" spans="1:72">
+    <row r="258" spans="1:72" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>95</v>
       </c>
@@ -47708,7 +47282,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="259" s="2" customFormat="1" spans="1:72">
+    <row r="259" spans="1:72" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>96</v>
       </c>
@@ -47863,7 +47437,7 @@
         <v>183</v>
       </c>
       <c r="BC259" s="2">
-        <v>2.24</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="BD259" s="2">
         <v>3.06</v>
@@ -47881,7 +47455,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="260" s="2" customFormat="1" spans="1:72">
+    <row r="260" spans="1:72" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>97</v>
       </c>
@@ -48057,7 +47631,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="261" s="2" customFormat="1" spans="1:72">
+    <row r="261" spans="1:72" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>98</v>
       </c>
@@ -48119,7 +47693,7 @@
         <v>12.3</v>
       </c>
       <c r="W261" s="2">
-        <v>16.4</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="X261" s="2">
         <v>14.1</v>
@@ -48128,7 +47702,7 @@
         <v>21.2</v>
       </c>
       <c r="Z261" s="2">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="AA261" s="9">
         <v>18</v>
@@ -48227,7 +47801,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="262" s="2" customFormat="1" spans="1:72">
+    <row r="262" spans="1:72" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>99</v>
       </c>
@@ -48289,7 +47863,7 @@
         <v>10</v>
       </c>
       <c r="W262" s="2">
-        <v>8.7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="X262" s="2">
         <v>7.9</v>
@@ -48367,7 +47941,7 @@
         <v>70</v>
       </c>
       <c r="AW262" s="2">
-        <v>5151.85</v>
+        <v>5151.8500000000004</v>
       </c>
       <c r="AX262" s="2">
         <v>2942.98</v>
@@ -48406,13 +47980,13 @@
         <v>64</v>
       </c>
       <c r="BJ262" s="2">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="BK262" s="2">
         <v>7.5</v>
       </c>
     </row>
-    <row r="263" s="2" customFormat="1" spans="1:72">
+    <row r="263" spans="1:72" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>100</v>
       </c>
@@ -48576,7 +48150,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="264" s="2" customFormat="1" spans="1:72">
+    <row r="264" spans="1:72" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>101</v>
       </c>
@@ -48638,7 +48212,7 @@
         <v>9</v>
       </c>
       <c r="W264" s="2">
-        <v>9.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="X264" s="2">
         <v>13.7</v>
@@ -48749,7 +48323,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="265" s="2" customFormat="1" spans="1:72">
+    <row r="265" spans="1:72" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>102</v>
       </c>
@@ -48817,10 +48391,10 @@
         <v>10.8</v>
       </c>
       <c r="Y265" s="2">
-        <v>9.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="Z265" s="2">
-        <v>9.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="AA265" s="9">
         <v>27</v>
@@ -48892,7 +48466,7 @@
         <v>244.04</v>
       </c>
       <c r="AX265" s="2">
-        <v>81.04</v>
+        <v>81.040000000000006</v>
       </c>
       <c r="AY265" s="2">
         <v>2</v>
@@ -48928,7 +48502,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="266" s="2" customFormat="1" spans="1:72">
+    <row r="266" spans="1:72" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>103</v>
       </c>
@@ -48990,7 +48564,7 @@
         <v>14.1</v>
       </c>
       <c r="W266" s="2">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="X266" s="2">
         <v>7.7</v>
@@ -49080,7 +48654,7 @@
         <v>2</v>
       </c>
       <c r="BC266" s="2">
-        <v>4.61</v>
+        <v>4.6100000000000003</v>
       </c>
       <c r="BD266" s="2">
         <v>5.34</v>
@@ -49098,7 +48672,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="267" s="2" customFormat="1" spans="1:72">
+    <row r="267" spans="1:72" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>104</v>
       </c>
@@ -49241,7 +48815,7 @@
         <v>2473.16</v>
       </c>
       <c r="AX267" s="2">
-        <v>2098.24</v>
+        <v>2098.2399999999998</v>
       </c>
       <c r="AY267" s="2">
         <v>2</v>
@@ -49253,7 +48827,7 @@
         <v>287</v>
       </c>
       <c r="BC267" s="2">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BD267" s="2">
         <v>2.92</v>
@@ -49274,7 +48848,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="268" s="2" customFormat="1" spans="1:72">
+    <row r="268" spans="1:72" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>105</v>
       </c>
@@ -49345,7 +48919,7 @@
         <v>13.2</v>
       </c>
       <c r="Z268" s="2">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="AA268" s="9">
         <v>16</v>
@@ -49450,7 +49024,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="269" spans="1:72">
+    <row r="269" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>106</v>
       </c>
@@ -49515,7 +49089,7 @@
         <v>15.1</v>
       </c>
       <c r="X269" s="2">
-        <v>18.1</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="Y269" s="2">
         <v>13.4</v>
@@ -49634,7 +49208,7 @@
       <c r="BS269" s="3"/>
       <c r="BT269" s="3"/>
     </row>
-    <row r="270" spans="1:72">
+    <row r="270" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>107</v>
       </c>
@@ -49818,7 +49392,7 @@
       <c r="BS270" s="3"/>
       <c r="BT270" s="3"/>
     </row>
-    <row r="271" spans="1:72">
+    <row r="271" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>108</v>
       </c>
@@ -50004,7 +49578,7 @@
       <c r="BS271" s="3"/>
       <c r="BT271" s="3"/>
     </row>
-    <row r="272" spans="1:72">
+    <row r="272" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>109</v>
       </c>
@@ -50066,7 +49640,7 @@
         <v>14.6</v>
       </c>
       <c r="W272" s="2">
-        <v>19.4</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="X272" s="2">
         <v>34</v>
@@ -50188,7 +49762,7 @@
       <c r="BS272" s="3"/>
       <c r="BT272" s="3"/>
     </row>
-    <row r="273" s="1" customFormat="1" spans="1:72">
+    <row r="273" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>110</v>
       </c>
@@ -50332,7 +49906,7 @@
         <v>1669.54</v>
       </c>
       <c r="AX273" s="2">
-        <v>1222.66</v>
+        <v>1222.6600000000001</v>
       </c>
       <c r="AY273" s="2">
         <v>1</v>
@@ -50364,7 +49938,7 @@
       </c>
       <c r="BM273" s="2"/>
     </row>
-    <row r="274" spans="1:72">
+    <row r="274" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>111</v>
       </c>
@@ -50429,7 +50003,7 @@
         <v>9.1</v>
       </c>
       <c r="X274" s="2">
-        <v>19.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="Y274" s="2">
         <v>22.5</v>
@@ -50544,7 +50118,7 @@
       <c r="BS274" s="3"/>
       <c r="BT274" s="3"/>
     </row>
-    <row r="275" spans="1:72">
+    <row r="275" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>112</v>
       </c>
@@ -50709,7 +50283,7 @@
       <c r="BH275" s="17"/>
       <c r="BI275" s="17"/>
       <c r="BJ275" s="2">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="BK275" s="2" t="s">
         <v>536</v>
@@ -50724,7 +50298,7 @@
       <c r="BS275" s="3"/>
       <c r="BT275" s="3"/>
     </row>
-    <row r="276" spans="1:72">
+    <row r="276" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>113</v>
       </c>
@@ -50864,7 +50438,7 @@
         <v>70</v>
       </c>
       <c r="AW276" s="2">
-        <v>1261.11</v>
+        <v>1261.1099999999999</v>
       </c>
       <c r="AX276" s="2" t="s">
         <v>536</v>
@@ -50906,7 +50480,7 @@
       <c r="BS276" s="3"/>
       <c r="BT276" s="3"/>
     </row>
-    <row r="277" spans="1:72">
+    <row r="277" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>114</v>
       </c>
@@ -51088,7 +50662,7 @@
       <c r="BS277" s="3"/>
       <c r="BT277" s="3"/>
     </row>
-    <row r="278" spans="1:72">
+    <row r="278" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>115</v>
       </c>
@@ -51268,7 +50842,7 @@
       <c r="BS278" s="3"/>
       <c r="BT278" s="3"/>
     </row>
-    <row r="279" spans="1:72">
+    <row r="279" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>116</v>
       </c>
@@ -51402,7 +50976,7 @@
         <v>70</v>
       </c>
       <c r="AW279" s="19">
-        <v>1138.34</v>
+        <v>1138.3399999999999</v>
       </c>
       <c r="AX279" s="19">
         <v>1260.79</v>
@@ -51414,7 +50988,7 @@
         <v>2</v>
       </c>
       <c r="BC279" s="4">
-        <v>1.16</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="BD279" s="4">
         <v>1.85</v>
@@ -51426,7 +51000,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="280" spans="1:72">
+    <row r="280" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>117</v>
       </c>
@@ -51488,7 +51062,7 @@
         <v>1031</v>
       </c>
       <c r="X280" s="4">
-        <v>18.4</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="Y280" s="2" t="s">
         <v>1032</v>
@@ -51581,7 +51155,7 @@
         <v>206</v>
       </c>
       <c r="BC280" s="4">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BD280" s="4">
         <v>1.92</v>
@@ -51605,7 +51179,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="281" spans="1:72">
+    <row r="281" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>118</v>
       </c>
@@ -51661,7 +51235,7 @@
         <v>51.1</v>
       </c>
       <c r="V281" s="2">
-        <v>19.1</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="W281" s="2">
         <v>22.3</v>
@@ -51760,7 +51334,7 @@
         <v>129</v>
       </c>
       <c r="BC281" s="4">
-        <v>2.43</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="BD281" s="4">
         <v>1.2</v>
@@ -51778,7 +51352,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="282" spans="1:72">
+    <row r="282" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>119</v>
       </c>
@@ -51948,7 +51522,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="283" spans="1:72">
+    <row r="283" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>120</v>
       </c>
@@ -52100,7 +51674,7 @@
         <v>217</v>
       </c>
       <c r="BC283" s="4">
-        <v>2.26</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="BD283" s="4">
         <v>2.56</v>
@@ -52127,7 +51701,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="284" spans="1:72">
+    <row r="284" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>121</v>
       </c>
@@ -52183,7 +51757,7 @@
         <v>21</v>
       </c>
       <c r="W284" s="2">
-        <v>16.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="X284" s="4">
         <v>20.2</v>
@@ -52192,7 +51766,7 @@
         <v>17.8</v>
       </c>
       <c r="Z284" s="2">
-        <v>16.1</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="AA284" s="5">
         <v>18</v>
@@ -52300,7 +51874,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="285" spans="1:72">
+    <row r="285" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>122</v>
       </c>
@@ -52356,7 +51930,7 @@
         <v>22.6</v>
       </c>
       <c r="W285" s="2">
-        <v>20.4</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="X285" s="4">
         <v>23.1</v>
@@ -52365,7 +51939,7 @@
         <v>23.5</v>
       </c>
       <c r="Z285" s="2">
-        <v>19.9</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="AA285" s="5">
         <v>43</v>
@@ -52476,7 +52050,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="286" spans="1:72">
+    <row r="286" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>123</v>
       </c>
@@ -52650,85 +52224,85 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="B23">
-    <cfRule type="duplicateValues" dxfId="0" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="duplicateValues" dxfId="0" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="duplicateValues" dxfId="0" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="duplicateValues" dxfId="0" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55">
-    <cfRule type="duplicateValues" dxfId="0" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57">
-    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B68">
-    <cfRule type="duplicateValues" dxfId="0" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B91">
-    <cfRule type="duplicateValues" dxfId="0" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B93">
-    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B97">
-    <cfRule type="duplicateValues" dxfId="0" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B116">
-    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B123">
-    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B136">
-    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B147">
-    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B182">
-    <cfRule type="duplicateValues" dxfId="0" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B190">
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B201">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B212">
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B217">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B245">
-    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B253">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B273">
-    <cfRule type="duplicateValues" dxfId="0" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B22 B254:B272 B274:B1048576 B213:B216 B246:B252 B218:B244 B202:B211 B191:B200 B183:B189 B148:B181 B137:B146 B124:B135 B117:B121 B98:B115 B94:B96 B92 B83:B90 B69:B81 B58:B67 B56 B42:B54 B38:B40 B25:B35">
     <cfRule type="duplicateValues" dxfId="0" priority="29"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>